--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B4E977-9F10-D643-8501-DCDA60DAD627}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7FB9B9D-8612-D64A-857E-7AD91BEFE950}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="199">
   <si>
     <t>Latin name</t>
   </si>
@@ -648,9 +648,6 @@
     <t>Eastern Zambia</t>
   </si>
   <si>
-    <t>Community-based study</t>
-  </si>
-  <si>
     <t>https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0001594</t>
   </si>
   <si>
@@ -685,9 +682,6 @@
   </si>
   <si>
     <t>Spatial cluster analysis</t>
-  </si>
-  <si>
-    <t>Spatial cluster analysis, use of mortality data</t>
   </si>
   <si>
     <t>ArcGIS, SaTScan, SAS 9.3, Epi Info 6</t>
@@ -1323,61 +1317,6 @@
     <t>Sub-Saharan Africa</t>
   </si>
   <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>https://parasitesandvectors.biomedcentral.com/track/pdf/10.1186/s13071-015-1077-x</t>
-  </si>
-  <si>
-    <t>ICT, STATA, ArcGIS</t>
-  </si>
-  <si>
-    <r>
-      <t>Kouassi, Bernard L., Dziedzom K. de Souza, Andre Goepogui, Charles A. Narh, Sandra A. King, Baldé S. Mamadou, Lamia Diakité et al. "Assessing the presence of Wuchereria bancrofti in vector and human populations from urban communities in Conakry, Guinea." </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="5"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Parasites &amp; vectors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 8, no. 1 (2015): 492.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This study found no cases of LF in the area. Do we still want to consider where human helminthiasis is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri "/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri "/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
     <t>https://onlinelibrary.wiley.com/doi/full/10.1111/j.1365-3156.2005.01558.x</t>
   </si>
   <si>
@@ -1549,14 +1488,231 @@
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0006325</t>
+    <t>Dracunculus medinensis</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3886430/</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No sample size given. Surveys conducted and geographic data collected but no specific methodologies mentioned. Check supplement?</t>
+  </si>
+  <si>
+    <r>
+      <t>Eberhard, M. L., Ruiz-Tiben, E., Hopkins, D. R., Farrell, C., Toe, F., Weiss, A., Withers, P. C., Jenks, M. H., Thiele, E. A., Cotton, J. A., Hance, Z., Holroyd, N., Cama, V. A., Tahir, M. A., … Mounda, T. (2014). The peculiar epidemiology of dracunculiasis in Chad. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The American journal of tropical medicine and hygiene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 61-70.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5582630/</t>
+  </si>
+  <si>
+    <t>Systematic literature review</t>
+  </si>
+  <si>
+    <t>PubMed, WHO, CDC, Google Scholar</t>
+  </si>
+  <si>
+    <t>Check supplement for search terms used</t>
+  </si>
+  <si>
+    <r>
+      <t>Beyene, H. B., Bekele, A., Shifara, A., Ebstie, Y. A., Desalegn, Z., Kebede, Z., Mulugeta, A., Deribe, K., Tadesse, Z., Abebe, T., Kebede, B., Abrha, G., … Jima, D. (2017). Elimination of Guinea Worm Disease in Ethiopia; Current Status of the Disease's, Eradication Strategies and Challenges to the End Game. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ethiopian medical journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Suppl 1), 15-31.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3748487/</t>
+  </si>
+  <si>
+    <t>South Sudan, Chad, Mali, Ethiopia</t>
+  </si>
+  <si>
+    <t>*DID NOT COME UP IN SEARCH* Map only present for South Sudan</t>
+  </si>
+  <si>
+    <t>Review of WHO initiative</t>
+  </si>
+  <si>
+    <r>
+      <t>Hopkins, D. R., Ruiz-Tiben, E., Weiss, A., Withers, P. C., Eberhard, M. L., &amp; Roy, S. L. (2013). Dracunculiasis eradication: and now, South Sudan. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The American journal of tropical medicine and hygiene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 5-10.</t>
+    </r>
+  </si>
+  <si>
+    <t>Review of disease control efforts</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2729080/</t>
+  </si>
+  <si>
+    <r>
+      <t>Rumunu, J., Brooker, S., Hopkins, A., Chane, F., Emerson, P., &amp; Kolaczinski, J. (2009). Southern Sudan: an opportunity for NTD control and elimination?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trends in parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(7), 301-7.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1664,6 +1820,26 @@
       <color rgb="FF333333"/>
       <name val="Calibri "/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="5"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1686,7 +1862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1714,6 +1890,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2029,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="135" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="135" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2058,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2272,22 +2450,22 @@
         <v>44</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="12">
         <v>2012</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="4">
         <v>720</v>
@@ -2307,7 +2485,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>68</v>
@@ -2376,83 +2554,83 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="12">
         <v>1998</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="H13" s="4">
         <v>130</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="12">
         <v>2002</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="H14" s="4">
         <v>79</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="12">
         <v>2003</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15" s="4">
         <v>2219</v>
@@ -2460,51 +2638,51 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="12">
         <v>2005</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="12">
         <v>2011</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H17" s="4">
         <v>8670</v>
@@ -2512,25 +2690,25 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="12">
         <v>2012</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H18" s="4">
         <v>9288</v>
@@ -2538,54 +2716,54 @@
     </row>
     <row r="19" spans="1:11" ht="14" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="12">
         <v>2013</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="12">
         <v>2014</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H20" s="4">
         <v>807</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2619,28 +2797,28 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" s="12">
         <v>2012</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="H22" s="4">
         <v>2639</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1">
@@ -2677,25 +2855,25 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="C24" s="12">
         <v>2010</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="H24" s="4">
         <v>91</v>
@@ -2703,31 +2881,31 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="11">
         <v>2011</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H25" s="4">
         <v>17533</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2735,22 +2913,22 @@
         <v>44</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" s="11">
         <v>2017</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H26" s="4">
         <v>1420</v>
@@ -2761,25 +2939,25 @@
         <v>44</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" s="11">
         <v>2012</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2787,48 +2965,48 @@
         <v>44</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C28" s="11">
         <v>2015</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C29" s="11">
         <v>2012</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="H29" s="4">
         <v>34294</v>
@@ -2836,25 +3014,25 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="11">
         <v>2014</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="H30" s="4">
         <v>9964</v>
@@ -2862,204 +3040,259 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C31" s="11">
         <v>2015</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" s="11">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="4">
-        <v>611</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C33" s="11">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>167</v>
+      <c r="H33" s="4">
+        <v>1073</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C34" s="11">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H34" s="4">
-        <v>1073</v>
+        <v>10943</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C35" s="11">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H35" s="4">
-        <v>10943</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C36" s="11">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H36" s="4">
-        <v>3600</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>184</v>
       </c>
       <c r="C37" s="11">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="I37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H37" s="4">
-        <v>1242</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
+      <c r="A38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="C38" s="11">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>186</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H38" s="4">
-        <v>18254</v>
+        <v>178</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2009</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7FB9B9D-8612-D64A-857E-7AD91BEFE950}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9948C357-59E8-7F42-BD1E-535D0B6ACB81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="241">
   <si>
     <t>Latin name</t>
   </si>
@@ -1706,6 +1706,507 @@
       </rPr>
       <t>(7), 301-7.</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4995312/</t>
+  </si>
+  <si>
+    <t>ArcGIS, AquaMaps</t>
+  </si>
+  <si>
+    <t>Habitat suitability modeling</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <r>
+      <t>Kuhn, T., Cunze, S., Kochmann, J., &amp; Klimpel, S. (2016). Environmental variables and definitive host distribution: a habitat suitability modelling for endohelminth parasites in the marine realm. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scientific reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 30246. doi:10.1038/srep30246</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Anisakis physeteris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> Anisakis pegreffi</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3564894/</t>
+  </si>
+  <si>
+    <r>
+      <t>Otranto, D., Dantas-Torres, F., Brianti, E., Traversa, D., Petrić, D., Genchi, C., &amp; Capelli, G. (2013). Vector-borne helminths of dogs and humans in Europe. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 16. doi:10.1186/1756-3305-6-16</t>
+    </r>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <r>
+      <t>Thelazia callipaeda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Dirofilaria immitis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Dirofilaria repens</t>
+    </r>
+  </si>
+  <si>
+    <t>Review of vector-borne helminths infecting dogs and humans in Europe</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6047625/</t>
+  </si>
+  <si>
+    <t>Mansonella streptocerca, Mansonella ozzardi, Mansonella perstans</t>
+  </si>
+  <si>
+    <r>
+      <t>Ta-Tang, T. H., Crainey, J. L., Post, R. J., Luz, S. L., &amp; Rubio, J. M. (2018). Mansonellosis: current perspectives. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Research and reports in tropical medicine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 9-24. doi:10.2147/RRTM.S125750</t>
+    </r>
+  </si>
+  <si>
+    <t>Review of mansonellosis in Africa and Latin America</t>
+  </si>
+  <si>
+    <t>Africa, Latin America</t>
+  </si>
+  <si>
+    <t>Mansonella perstans</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5219801/</t>
+  </si>
+  <si>
+    <r>
+      <t>Debrah, L. B., Nausch, N., Opoku, V. S., Owusu, W., Mubarik, Y., Berko, D. A., Wanji, S., Layland, L. E., Hoerauf, A., Jacobsen, M., Debrah, A. Y., … Phillips, R. O. (2017). Epidemiology of Mansonella perstans in the middle belt of Ghana. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 15. doi:10.1186/s13071-016-1960-0</t>
+    </r>
+  </si>
+  <si>
+    <t>IBM SPSS, Prism 6, http://www.spatialepidemiology.net/</t>
+  </si>
+  <si>
+    <t>Geospatial analysis</t>
+  </si>
+  <si>
+    <t>Schistosoma mansoni, Schistosoma haematobium, Schistosoma intercalatum, Schistosoma japonicum, Schistosoma mekongi</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4672382/</t>
+  </si>
+  <si>
+    <r>
+      <t>Colley, D. G., Bustinduy, A. L., Secor, W. E., &amp; King, C. H. (2014). Human schistosomiasis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lancet (London, England)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>383</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9936), 2253-64.</t>
+    </r>
+  </si>
+  <si>
+    <t>PubMed, Google Scholar, Medline, Embase</t>
+  </si>
+  <si>
+    <t>Search terms used: “schistosome*”, “bilharz*”</t>
+  </si>
+  <si>
+    <t>Schistosoma mansoni, Schistosoma haematobium, Schistosoma intercalatum</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4653854/</t>
+  </si>
+  <si>
+    <t>QGIS, PubMed</t>
+  </si>
+  <si>
+    <r>
+      <t>Madinga, J., Linsuke, S., Mpabanzi, L., Meurs, L., Kanobana, K., Speybroeck, N., Lutumba, P., … Polman, K. (2015). Schistosomiasis in the Democratic Republic of Congo: a literature review. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 601. doi:10.1186/s13071-015-1206-6</t>
+    </r>
+  </si>
+  <si>
+    <t>Schistosoma mansoni, Schistosoma haematobium, Ascaris lumbricoides, Trichuris Trichiura</t>
+  </si>
+  <si>
+    <r>
+      <t>Tchuem Tchuenté, L. A., Kamwa Ngassam, R. I., Sumo, L., Ngassam, P., Dongmo Noumedem, C., Nzu, D. D., Dankoni, E., Kenfack, C. M., Gipwe, N. F., Akame, J., Tarini, A., Zhang, Y., … Angwafo, F. F. (2012). Mapping of schistosomiasis and soil-transmitted helminthiasis in the regions of centre, East and West Cameroon. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), e1553.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3295801/</t>
+  </si>
+  <si>
+    <t>Mapping surveys</t>
+  </si>
+  <si>
+    <t>IBM SPSS, ArcGIS</t>
+  </si>
+  <si>
+    <t>There's a very similar version of this study from 2013 - include both?</t>
+  </si>
+  <si>
+    <t>Schistosoma mansoni, Schistosoma haematobium</t>
+  </si>
+  <si>
+    <r>
+      <t>French, M. D., Churcher, T. S., Webster, J. P., Fleming, F. M., Fenwick, A., Kabatereine, N. B., Sacko, M., Garba, A., Toure, S., Nyandindi, U., Mwansa, J., Blair, L., Bosqué-Oliva, E., … Basáñez, M. G. (2015). Estimation of changes in the force of infection for intestinal and urogenital schistosomiasis in countries with schistosomiasis control initiative-assisted programmes. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 558. doi:10.1186/s13071-015-1138-1</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4619997/</t>
+  </si>
+  <si>
+    <t>Force of infection analysis</t>
+  </si>
+  <si>
+    <t>Burkina Faso, Mali, Niger, Tanzania, Uganda, Zambia, Sub-Saharan Africa</t>
   </si>
 </sst>
 </file>
@@ -2207,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="135" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3293,6 +3794,193 @@
       </c>
       <c r="F40" s="4" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" s="4">
+        <v>12594</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3323,9 +4011,11 @@
     <hyperlink ref="D24" r:id="rId20" xr:uid="{869D9108-CF55-3946-9584-AF9C755DA96F}"/>
     <hyperlink ref="D13" r:id="rId21" xr:uid="{70C11DEF-D482-5643-9B9F-A2E16C7C7531}"/>
     <hyperlink ref="D14" r:id="rId22" xr:uid="{A95390E9-897A-F641-A5ED-CA99340B3659}"/>
+    <hyperlink ref="D41" r:id="rId23" xr:uid="{A711E56A-C888-F040-9113-9DF53FF62F1F}"/>
+    <hyperlink ref="D42" r:id="rId24" xr:uid="{FB5F4188-14D1-2E49-A414-2B9E2B1EFA6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId23"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9948C357-59E8-7F42-BD1E-535D0B6ACB81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{840C89A5-BEF0-444C-8A9C-F7150CFB1B1F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
+    <workbookView xWindow="0" yWindow="1220" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="308">
   <si>
     <t>Latin name</t>
   </si>
@@ -2207,13 +2207,694 @@
   </si>
   <si>
     <t>Burkina Faso, Mali, Niger, Tanzania, Uganda, Zambia, Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Toxocara cati</t>
+  </si>
+  <si>
+    <t>India (Chennai)</t>
+  </si>
+  <si>
+    <t>Soil sampling</t>
+  </si>
+  <si>
+    <t>Soil contamination survey</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4000375/</t>
+  </si>
+  <si>
+    <r>
+      <t>Thomas, D., &amp; Jeyathilakan, N. (2012). Detection of Toxocara eggs in contaminated soil from various public places of Chennai city and detailed correlation with literature. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of parasitic diseases : official organ of the Indian Society for Parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 174-80.</t>
+    </r>
+  </si>
+  <si>
+    <t>Echinococcus mutilocularis</t>
+  </si>
+  <si>
+    <r>
+      <t>Giraudoux, P., Raoul, F., Afonso, E., Ziadinov, I., Yang, Y., Li, L., Li, T., Quéré, J. P., Feng, X., Wang, Q., Wen, H., Ito, A., … Craig, P. S. (2013). Transmission ecosystems of Echinococcus multilocularis in China and Central Asia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(13), 1655-66.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3806041/</t>
+  </si>
+  <si>
+    <t>Transmission ecosystem mapping</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>25 regions</t>
+  </si>
+  <si>
+    <t>Taenia asiatica</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3900737/</t>
+  </si>
+  <si>
+    <t>PubMed, Asia Journals OnLine (AsiaJOL), African Journals OnLine (AJOL), Latin American Journals OnLine (LAMJOL), WHO Global Health Library, and IndMED</t>
+  </si>
+  <si>
+    <r>
+      <t>Ale, A., Victor, B., Praet, N., Gabriël, S., Speybroeck, N., Dorny, P., &amp; Devleesschauwer, B. (2014). Epidemiology and genetic diversity of Taenia asiatica: a systematic review. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 45. doi:10.1186/1756-3305-7-45</t>
+    </r>
+  </si>
+  <si>
+    <t>Oesophagostomum bifurcum</t>
+  </si>
+  <si>
+    <t>L. Yelifari, P. Bloch, P. Magnussen, L. van Lieshout, G. Dery, S. Anemana, E. Agongo, A.M. Polderman; Distribution of human Oesophagostomum bifurcum, hookworm and Strongyloides stercoralisinfections in northern Ghana, Transactions of The Royal Society of Tropical Medicine and Hygiene, Volume 99, Issue 1, 1 January 2005, Pages 32–38, https://doi.org/10.1016/j.trstmh.2004.02.007</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/trstmh/article/99/1/32/1911172</t>
+  </si>
+  <si>
+    <t>Northern Ghana</t>
+  </si>
+  <si>
+    <t>Did not appear in PMC search but was a reference in a paper that did appear - this one is available on PubMed</t>
+  </si>
+  <si>
+    <t>Epi Info, SPSS, GPS, ArcMap, GIS</t>
+  </si>
+  <si>
+    <t>Fasciolopsis buski, Angiostrongylus cantonensis, Clonorchis sinensis, Opisthorchis viverrini, Opisthorchis felineus, Fasciola hepatica</t>
+  </si>
+  <si>
+    <r>
+      <t>Lu, X. T., Gu, Q. Y., Limpanont, Y., Song, L. G., Wu, Z. D., Okanurak, K., &amp; Lv, Z. Y. (2018). Snail-borne parasitic diseases: an update on global epidemiological distribution, transmission interruption and control methods. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infectious diseases of poverty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 28. doi:10.1186/s40249-018-0414-7</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5890347/</t>
+  </si>
+  <si>
+    <t>No specific databases listed</t>
+  </si>
+  <si>
+    <t>Mansonella ozzardi</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4155851/</t>
+  </si>
+  <si>
+    <r>
+      <t>Medeiros, J. F., Rodrigues, M. S., Katsuragawa, T. H., Costa, C. A., &amp; Pessoa, F. A. (2014). Mansonella ozzardi in the municipality of Tefé, Amazonas, Brazil, 60 years after the first report: an epidemiologic study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Memorias do Instituto Oswaldo Cruz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), 480-3.</t>
+    </r>
+  </si>
+  <si>
+    <t>GLM, R, Epicalc, Kernel mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spatial distribution   </t>
+  </si>
+  <si>
+    <t>Onchocerca volvulus</t>
+  </si>
+  <si>
+    <r>
+      <t>(2011). Ocular onchocerciasis: current management and future prospects. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clinical ophthalmology (Auckland, N.Z.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1479-91.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3206119/</t>
+  </si>
+  <si>
+    <t>Latin America, Africa</t>
+  </si>
+  <si>
+    <t>Review of OEPA, OCP, APOC initiatives</t>
+  </si>
+  <si>
+    <t>Onchocerca volvulus, Wuchereria bancrofti</t>
+  </si>
+  <si>
+    <r>
+      <t>Herrador, Z., Garcia, B., Ncogo, P., Perteguer, M. J., Rubio, J. M., Rivas, E., Cimas, M., Ordoñez, G., de Pablos, S., Hernández-González, A., Nguema, R., Moya, L., Romay-Barja, M., Garate, T., Barbre, K., … Benito, A. (2018). Interruption of onchocerciasis transmission in Bioko Island: Accelerating the movement from control to elimination in Equatorial Guinea. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), e0006471. doi:10.1371/journal.pntd.0006471</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5953477/</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea (Bioko Island)</t>
+  </si>
+  <si>
+    <t>ELISA, MAPS.ME, Stata 14.0, QGIS</t>
+  </si>
+  <si>
+    <t>Entomological assessment</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3114755/</t>
+  </si>
+  <si>
+    <r>
+      <t>Schur, N., Hürlimann, E., Garba, A., Traoré, M. S., Ndir, O., Ratard, R. C., Tchuem Tchuenté, L. A., Kristensen, T. K., Utzinger, J., … Vounatsou, P. (2011). Geostatistical model-based estimates of Schistosomiasis prevalence among individuals aged ≤ 20 years in West Africa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), e1194.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kriging, remote sensing, NDVI, LST, MODIS, ArcMap, ISODATA, STATA 10.1, Bayesian geostatistical modeling</t>
+  </si>
+  <si>
+    <t>1993 locations for S. haematobium, 1179 for S. mansoni</t>
+  </si>
+  <si>
+    <t>Opisthorchis viverrini</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3279336/</t>
+  </si>
+  <si>
+    <r>
+      <t>Forrer, A., Sayasone, S., Vounatsou, P., Vonghachack, Y., Bouakhasith, D., Vogt, S., Glaser, R., Utzinger, J., Akkhavong, K., … Odermatt, P. (2012). Spatial distribution of, and risk factors for, Opisthorchis viverrini infection in southern Lao PDR. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), e1481.</t>
+    </r>
+  </si>
+  <si>
+    <t>Spatial distribution</t>
+  </si>
+  <si>
+    <t>GPS, remote sensing, LST, EVI, MODIS, RFE, LULC, ArcGIS, STATA 10, EpiData 3.1, WinBUGS</t>
+  </si>
+  <si>
+    <t>Schistosoma mekongi, Trichuris trichiura, Ascaris lumbricoides</t>
+  </si>
+  <si>
+    <r>
+      <t>Laymanivong, S., Hangvanthong, B., Keokhamphavanh, B., Phommasansak, M., Phinmaland, B., Sanpool, O., Maleewong, W., … Intapan, P. M. (2014). Current status of human hookworm infections, ascariasis, trichuriasis, schistosomiasis mekongi and other trematodiases in Lao People's Democratic Republic. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The American journal of tropical medicine and hygiene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), 667-9.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3973511/</t>
+  </si>
+  <si>
+    <t>Review of national helminthiasis survey results</t>
+  </si>
+  <si>
+    <t>Schistosoma japonicum</t>
+  </si>
+  <si>
+    <t>Genomic exploration</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4664899/</t>
+  </si>
+  <si>
+    <t>Not intended to be a mapping study, but there is a map showing where S. japonicum is located</t>
+  </si>
+  <si>
+    <r>
+      <t>Young, N. D., Chan, K. G., Korhonen, P. K., Min Chong, T., Ee, R., Mohandas, N., Koehler, A. V., Lim, Y. L., Hofmann, A., Jex, A. R., Qian, B., Chilton, N. B., Gobert, G. N., McManus, D. P., Tan, P., Webster, B. L., Rollinson, D., … Gasser, R. B. (2015). Exploring molecular variation in Schistosoma japonicum in China. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scientific reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 17345. doi:10.1038/srep17345</t>
+    </r>
+  </si>
+  <si>
+    <t>Schistosoma haematobium</t>
+  </si>
+  <si>
+    <r>
+      <t>Knopp, S., Corstjens, P. L., Koukounari, A., Cercamondi, C. I., Ame, S. M., Ali, S. M., de Dood, C. J., Mohammed, K. A., Utzinger, J., Rollinson, D., … van Dam, G. J. (2015). Sensitivity and Specificity of a Urine Circulating Anodic Antigen Test for the Diagnosis of Schistosoma haematobium in Low Endemic Settings. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), e0003752. doi:10.1371/journal.pntd.0003752</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4431728/</t>
+  </si>
+  <si>
+    <t>UCAA2000, Excel, STATA 12, Mplus V7</t>
+  </si>
+  <si>
+    <t>Urine sampling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2341,6 +3022,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2363,7 +3058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2393,6 +3088,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2708,10 +3415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3981,6 +4688,329 @@
       </c>
       <c r="F48" s="4" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="11">
+        <v>2005</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H52" s="19">
+        <v>20250</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H56" s="4">
+        <v>7052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H58" s="4">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H59" s="4">
+        <v>8610</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C60" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1740</v>
       </c>
     </row>
   </sheetData>
@@ -4013,9 +5043,10 @@
     <hyperlink ref="D14" r:id="rId22" xr:uid="{A95390E9-897A-F641-A5ED-CA99340B3659}"/>
     <hyperlink ref="D41" r:id="rId23" xr:uid="{A711E56A-C888-F040-9113-9DF53FF62F1F}"/>
     <hyperlink ref="D42" r:id="rId24" xr:uid="{FB5F4188-14D1-2E49-A414-2B9E2B1EFA6F}"/>
+    <hyperlink ref="B52" r:id="rId25" display="https://doi.org/10.1016/j.trstmh.2004.02.007" xr:uid="{3E773AB5-5088-B14E-B31F-AE13AF65B57A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>
--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{840C89A5-BEF0-444C-8A9C-F7150CFB1B1F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46134D99-9318-E94D-8203-28CF89FDB14E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1220" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="390">
   <si>
     <t>Latin name</t>
   </si>
@@ -2888,6 +2888,942 @@
   </si>
   <si>
     <t>Urine sampling</t>
+  </si>
+  <si>
+    <r>
+      <t>Madinga, J., Kanobana, K., Lukanu, P., Abatih, E., Baloji, S., Linsuke, S., Praet, N., Kapinga, S., Polman, K., Lutumba, P., Speybroeck, N., Dorny, P., Harrison, W., … Gabriel, S. (2017). Geospatial and age-related patterns of Taenia solium taeniasis in the rural health zone of Kimpese, Democratic Republic of Congo. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acta tropica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 100-109.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5178865/</t>
+  </si>
+  <si>
+    <t>GPS, ELISA, STATA 11, K functions, R, SaTScan, 999 Monte Carlo simulations</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465723/</t>
+  </si>
+  <si>
+    <r>
+      <t>Braae, U. C., Saarnak, C. F., Mukaratirwa, S., Devleesschauwer, B., Magnussen, P., &amp; Johansen, M. V. (2015). Taenia solium taeniosis/cysticercosis and the co-distribution with schistosomiasis in Africa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 323. doi:10.1186/s13071-015-0938-7</t>
+    </r>
+  </si>
+  <si>
+    <t>PubMed, ProMED, Google Scholar, Web of Knowledge, Société de Pathologie Exotique, Cab Direct, African Journals Online</t>
+  </si>
+  <si>
+    <t>Clonorchis sinensis</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5416880/</t>
+  </si>
+  <si>
+    <r>
+      <t>Lai, Y. S., Zhou, X. N., Pan, Z. H., Utzinger, J., &amp; Vounatsou, P. (2017). Risk mapping of clonorchiasis in the People's Republic of China: A systematic review and Bayesian geostatistical analysis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), e0005239. doi:10.1371/journal.pntd.0005239</t>
+    </r>
+  </si>
+  <si>
+    <t>Risk mapping from systematic literature review</t>
+  </si>
+  <si>
+    <t>633 regions</t>
+  </si>
+  <si>
+    <t>PubMed, Web of Science, China National Knowledge Internet, Wanfang Data, NDVI, LST, geostatistical linear regression models</t>
+  </si>
+  <si>
+    <r>
+      <t>Sripa, B., &amp; Echaubard, P. (2017). Prospects and Challenges towards Sustainable Liver Fluke Control. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trends in parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10), 799-812.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5656390/</t>
+  </si>
+  <si>
+    <t>Southeast Asia</t>
+  </si>
+  <si>
+    <t>Review article</t>
+  </si>
+  <si>
+    <t>Dirofilaria repens</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Dirofilaria immitis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Dirofilaria repens</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3438040/</t>
+  </si>
+  <si>
+    <r>
+      <t>Latrofa, M. S., Montarsi, F., Ciocchetta, S., Annoscia, G., Dantas-Torres, F., Ravagnan, S., Capelli, G., … Otranto, D. (2012). Molecular xenomonitoring of Dirofilaria immitis and Dirofilaria repens in mosquitoes from north-eastern Italy by real-time PCR coupled with melting curve analysis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 76. doi:10.1186/1756-3305-5-76</t>
+    </r>
+  </si>
+  <si>
+    <t>Molecular xenomonitoring</t>
+  </si>
+  <si>
+    <t>Italy (Veneto region)</t>
+  </si>
+  <si>
+    <t>Not intended to be a mapping study, but there is a map</t>
+  </si>
+  <si>
+    <t>PCR, melting-curve analysis</t>
+  </si>
+  <si>
+    <t>Finland, Russia</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5681764/</t>
+  </si>
+  <si>
+    <t>Not exactly sure what this is or if it's relevant</t>
+  </si>
+  <si>
+    <r>
+      <t>Pietikäinen, R., Nordling, S., Jokiranta, S., Saari, S., Heikkinen, P., Gardiner, C., Kerttula, A. M., Kantanen, T., Nikanorova, A., Laaksonen, S., Lavikainen, A., … Oksanen, A. (2017). Dirofilaria repens transmission in southeastern Finland. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 561. doi:10.1186/s13071-017-2499-4</t>
+    </r>
+  </si>
+  <si>
+    <t>Case reports</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4837637/</t>
+  </si>
+  <si>
+    <r>
+      <t>Matějů, J., Chanová, M., Modrý, D., Mitková, B., Hrazdilová, K., Žampachová, V., &amp; Kolářová, L. (2016). Dirofilaria repens: emergence of autochthonous human infections in the Czech Republic (case reports). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BMC infectious diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 171. doi:10.1186/s12879-016-1505-3</t>
+    </r>
+  </si>
+  <si>
+    <t>Fasciola hepatica</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4832448/</t>
+  </si>
+  <si>
+    <r>
+      <t>Byrne, A. W., McBride, S., Lahuerta-Marin, A., Guelbenzu, M., McNair, J., Skuce, R. A., &amp; McDowell, S. W. (2016). Liver fluke (Fasciola hepatica) infection in cattle in Northern Ireland: a large-scale epidemiological investigation utilising surveillance data. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 209. doi:10.1186/s13071-016-1489-2</t>
+    </r>
+  </si>
+  <si>
+    <t>GLM, fractional response regressions, Stata 14, ArcGIS</t>
+  </si>
+  <si>
+    <r>
+      <t>Bocanegra, C., Gallego, S., Mendioroz, J., Moreno, M., Sulleiro, E., Salvador, F., Sikaleta, N., Nindia, A., Tchipita, D., Joromba, M., Kavaya, S., Sánchez Montalvá, A., López, T., … Molina, I. (2015). Epidemiology of Schistosomiasis and Usefulness of Indirect Diagnostic Tests in School-Age Children in Cubal, Central Angola. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10), e0004055. doi:10.1371/journal.pntd.0004055</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4608768/</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Epi Info, STATA 11</t>
+  </si>
+  <si>
+    <t>Not sure what to call this</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4161351/</t>
+  </si>
+  <si>
+    <r>
+      <t>Doumbo, S., Tran, T. M., Sangala, J., Li, S., Doumtabe, D., Kone, Y., Traoré, A., Bathily, A., Sogoba, N., Coulibaly, M. E., Huang, C. Y., Ongoiba, A., Kayentao, K., Diallo, M., Dramane, Z., Nutman, T. B., Crompton, P. D., Doumbo, O., … Traore, B. (2014). Co-infection of long-term carriers of Plasmodium falciparum with Schistosoma haematobium enhances protection from febrile malaria: a prospective cohort study in Mali. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e3154. doi:10.1371/journal.pntd.0003154</t>
+    </r>
+  </si>
+  <si>
+    <t>GPS, ArcView, QGIS, SaTScan, R</t>
+  </si>
+  <si>
+    <t>Schistosoma mansoni and Schistosoma haematobium</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4509651/</t>
+  </si>
+  <si>
+    <r>
+      <t>Sousa-Figueiredo, J. C., Stanton, M. C., Katokele, S., Arinaitwe, M., Adriko, M., Balfour, L., Reiff, M., Lancaster, W., Noden, B. H., Bock, R., … Stothard, J. R. (2015). Mapping of Schistosomiasis and Soil-Transmitted Helminths in Namibia: The First Large-Scale Protocol to Formally Include Rapid Diagnostic Tests. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(7), e0003831. doi:10.1371/journal.pntd.0003831</t>
+    </r>
+  </si>
+  <si>
+    <t>Prevalence mapping</t>
+  </si>
+  <si>
+    <t>Epi Info, EpiData, GPS, ArcGIS, NDVI, Moran's I statistic</t>
+  </si>
+  <si>
+    <t>Prevalence mapping and spatial clustering</t>
+  </si>
+  <si>
+    <t>Question: are we including studies that map species really broadly (ex. Map of all soil transmitted helminthiases) or just individual species?</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5925830/</t>
+  </si>
+  <si>
+    <t>PubMed, Google Scholar, EBSCOhost</t>
+  </si>
+  <si>
+    <r>
+      <t>Kalinda, C., Chimbari, M. J., &amp; Mukaratirwa, S. (2018). Schistosomiasis in Zambia: a systematic review of past and present experiences. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infectious diseases of poverty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 41. doi:10.1186/s40249-018-0424-5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma haematobium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Hymenolepis nana</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Soares Magalhães, R. J., Fançony, C., Gamboa, D., Langa, A. J., Sousa-Figueiredo, J. C., Clements, A. C., &amp; Vaz Nery, S. (2013). Extending helminth control beyond STH and schistosomiasis: the case of human hymenolepiasis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10), e2321. doi:10.1371/journal.pntd.0002321</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3812097/</t>
+  </si>
+  <si>
+    <t>Predicted prevalence mapping</t>
+  </si>
+  <si>
+    <t>Model-based geostatistics</t>
+  </si>
+  <si>
+    <t>Strongyloides stercoralis</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>LST, EVI, LULC, RFE, EpiData, STATA 12.1, ArcGIS, WinBUGS, generalized estimating equations, Kriging</t>
+  </si>
+  <si>
+    <r>
+      <t>Khieu, V., Schär, F., Forrer, A., Hattendorf, J., Marti, H., Duong, S., Vounatsou, P., Muth, S., … Odermatt, P. (2014). High prevalence and spatial distribution of Strongyloides stercoralis in rural Cambodia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), e2854. doi:10.1371/journal.pntd.0002854</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4055527/</t>
+  </si>
+  <si>
+    <r>
+      <t>Mwape, K. E., Phiri, I. K., Praet, N., Muma, J. B., Zulu, G., Van den Bossche, P., de Deken, R., Speybroeck, N., Dorny, P., … Gabriël, S. (2012). Taenia solium Infections in a rural area of Eastern Zambia-a community based study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), e1594.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3313923/</t>
+  </si>
+  <si>
+    <t>ELISA, GPS, Excel, Stata, ArcView Gis, Crimestat III</t>
+  </si>
+  <si>
+    <t>Echinostoma revolutum</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0001706X17310847?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Crimestat III &lt;3</t>
+  </si>
+  <si>
+    <t>1771 snails</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Do we care about this if it's mapping snail infection? Not meant to be a mapping study in the first place</t>
+  </si>
+  <si>
+    <t>https://folia.paru.cas.cz/pdfs/fol/2014/05/03.pdf</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Do we care if it's bobcats?</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC118073/</t>
+  </si>
+  <si>
+    <r>
+      <t>Cairncross, S., Muller, R., &amp; Zagaria, N. (2002). Dracunculiasis (Guinea worm disease) and the eradication initiative. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clinical microbiology reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 223-46.</t>
+    </r>
+  </si>
+  <si>
+    <t>GIS</t>
   </si>
 </sst>
 </file>
@@ -3415,10 +4351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="135" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -5011,6 +5947,444 @@
       </c>
       <c r="H61" s="4">
         <v>1740</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H62" s="4">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C64" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C65" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C66" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C70" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H70" s="4">
+        <v>1283</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C71" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H71" s="4">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C72" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H72" s="4">
+        <v>17896</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C75" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C76" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H76" s="4">
+        <v>720</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C77" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" s="11">
+        <v>2002</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5044,9 +6418,10 @@
     <hyperlink ref="D41" r:id="rId23" xr:uid="{A711E56A-C888-F040-9113-9DF53FF62F1F}"/>
     <hyperlink ref="D42" r:id="rId24" xr:uid="{FB5F4188-14D1-2E49-A414-2B9E2B1EFA6F}"/>
     <hyperlink ref="B52" r:id="rId25" display="https://doi.org/10.1016/j.trstmh.2004.02.007" xr:uid="{3E773AB5-5088-B14E-B31F-AE13AF65B57A}"/>
+    <hyperlink ref="D73" r:id="rId26" xr:uid="{C19CCC9C-E1C2-A84F-B5F4-A96A2C3CBA77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46134D99-9318-E94D-8203-28CF89FDB14E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB698FA-105F-3244-B75E-1B8B1EE08FEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="960" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="387">
   <si>
     <t>Latin name</t>
   </si>
@@ -2783,9 +2783,6 @@
     <t>Schistosoma japonicum</t>
   </si>
   <si>
-    <t>Genomic exploration</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4664899/</t>
   </si>
   <si>
@@ -2885,9 +2882,6 @@
   </si>
   <si>
     <t>UCAA2000, Excel, STATA 12, Mplus V7</t>
-  </si>
-  <si>
-    <t>Urine sampling</t>
   </si>
   <si>
     <r>
@@ -3175,9 +3169,6 @@
     </r>
   </si>
   <si>
-    <t>Molecular xenomonitoring</t>
-  </si>
-  <si>
     <t>Italy (Veneto region)</t>
   </si>
   <si>
@@ -3237,9 +3228,6 @@
       </rPr>
       <t>(1), 561. doi:10.1186/s13071-017-2499-4</t>
     </r>
-  </si>
-  <si>
-    <t>Case reports</t>
   </si>
   <si>
     <t>Czech Republic</t>
@@ -3824,6 +3812,9 @@
   </si>
   <si>
     <t>GIS</t>
+  </si>
+  <si>
+    <t>Gray data</t>
   </si>
 </sst>
 </file>
@@ -4353,8 +4344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="135" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -5905,45 +5896,45 @@
         <v>298</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C60" s="11">
         <v>2015</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>251</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>304</v>
       </c>
       <c r="C61" s="11">
         <v>2015</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H61" s="4">
         <v>1740</v>
@@ -5954,13 +5945,13 @@
         <v>44</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C62" s="11">
         <v>2017</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>52</v>
@@ -5969,7 +5960,7 @@
         <v>50</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H62" s="4">
         <v>4599</v>
@@ -5980,13 +5971,13 @@
         <v>44</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C63" s="11">
         <v>2015</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>186</v>
@@ -5995,33 +5986,33 @@
         <v>19</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>316</v>
       </c>
       <c r="C64" s="11">
         <v>2017</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>251</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6029,160 +6020,163 @@
         <v>288</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C65" s="11">
         <v>2017</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>327</v>
       </c>
       <c r="C66" s="11">
         <v>2012</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="K66" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C67" s="11">
         <v>2017</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C68" s="11">
         <v>2016</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C69" s="11">
         <v>2016</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C70" s="11">
         <v>2015</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>346</v>
+      <c r="D70" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H70" s="4">
         <v>1283</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C71" s="11">
         <v>2014</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H71" s="4">
         <v>616</v>
@@ -6190,77 +6184,77 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C72" s="11">
         <v>2015</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="F72" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="H72" s="4">
         <v>17896</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C73" s="11">
         <v>2018</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>147</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C74" s="11">
         <v>2013</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H74" s="4">
         <v>2168</v>
@@ -6268,25 +6262,25 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C75" s="11">
         <v>2014</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="H75" s="4">
         <v>2396</v>
@@ -6297,13 +6291,13 @@
         <v>44</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C76" s="11">
         <v>2012</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>85</v>
@@ -6312,39 +6306,39 @@
         <v>147</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H76" s="4">
         <v>720</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C77" s="11">
         <v>2018</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6355,13 +6349,13 @@
         <v>2014</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6369,22 +6363,22 @@
         <v>179</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C79" s="11">
         <v>2002</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -6419,9 +6413,10 @@
     <hyperlink ref="D42" r:id="rId24" xr:uid="{FB5F4188-14D1-2E49-A414-2B9E2B1EFA6F}"/>
     <hyperlink ref="B52" r:id="rId25" display="https://doi.org/10.1016/j.trstmh.2004.02.007" xr:uid="{3E773AB5-5088-B14E-B31F-AE13AF65B57A}"/>
     <hyperlink ref="D73" r:id="rId26" xr:uid="{C19CCC9C-E1C2-A84F-B5F4-A96A2C3CBA77}"/>
+    <hyperlink ref="D70" r:id="rId27" xr:uid="{D9DC62EF-5C20-E145-BF2C-6D285F6FF551}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId27"/>
+  <legacyDrawing r:id="rId28"/>
 </worksheet>
 </file>
--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB698FA-105F-3244-B75E-1B8B1EE08FEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73945F9D-21CF-8945-8887-7CC62C758F1D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="583">
   <si>
     <t>Latin name</t>
   </si>
@@ -3815,13 +3816,2495 @@
   </si>
   <si>
     <t>Gray data</t>
+  </si>
+  <si>
+    <r>
+      <t>Irie, T., Yamaguchi, Y., Doanh, P. N., Guo, Z. H., Habe, S., Horii, Y., &amp; Nonaka, N. (2017). Infection with Paragonimus westermani of boar-hunting dogs in Western Japan maintained via artificial feeding with wild boar meat by hunters. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Journal of veterinary medical science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(8), 1419-1425.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5573832/</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>ELISA, PCR, Excel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Paragonimus westermani </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> Paragonimus skrjabini miyazakii</t>
+    </r>
+  </si>
+  <si>
+    <t>Schistosoma mansoni</t>
+  </si>
+  <si>
+    <t>SmMIT-LAMP assay, Kato-Katz smear, GPS, ArcGis 10.1, GraphPad Prism, Kernel Density Estimation</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5849311/</t>
+  </si>
+  <si>
+    <r>
+      <t>Gandasegui, J., Fernández-Soto, P., Muro, A., Simões Barbosa, C., Lopes de Melo, F., Loyo, R., &amp; de Souza Gomes, E. C. (2018). A field survey using LAMP assay for detection of Schistosoma mansoni in a low-transmission area of schistosomiasis in Umbuzeiro, Brazil: Assessment in human and snail samples. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), e0006314. doi:10.1371/journal.pntd.0006314</t>
+    </r>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Sample size is pigs</t>
+  </si>
+  <si>
+    <t>Nearest neighbor, GPS, ArcView, ArcGis, SPSS 10, InStat3, GraphPad</t>
+  </si>
+  <si>
+    <r>
+      <t>Morales, J., Martínez, J. J., Rosetti, M., Fleury, A., Maza, V., Hernandez, M., Villalobos, N., Fragoso, G., de Aluja, A. S., Larralde, C., … Sciutto, E. (2008). Spatial distribution of Taenia solium porcine cysticercosis within a rural area of Mexico. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e284.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2565694/</t>
+  </si>
+  <si>
+    <t>Intestinal helminths</t>
+  </si>
+  <si>
+    <r>
+      <t>Li, X. X., Ren, Z. P., Wang, L. X., Zhang, H., Jiang, S. W., Chen, J. X., Wang, J. F., … Zhou, X. N. (2016). Co-endemicity of Pulmonary Tuberculosis and Intestinal Helminth Infection in the People's Republic of China. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), e0004580. doi:10.1371/journal.pntd.0004580</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4835095/</t>
+  </si>
+  <si>
+    <t>Co-endemic relative risk mapping</t>
+  </si>
+  <si>
+    <t>Kato-Katz, LST, NDVI, ArcGIS 10, Bayesian GLRMs, R, WinBUGS, Kriging</t>
+  </si>
+  <si>
+    <t>327 PTB survey sites and 687 IHI survey sites</t>
+  </si>
+  <si>
+    <t>Also a study of prevalence of pulmonary tuberculosis</t>
+  </si>
+  <si>
+    <t>Soil-transmitted helminths</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Kato-Katz, PCR, Epi-Info, SAS, ArcGIS</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4199552/</t>
+  </si>
+  <si>
+    <r>
+      <t>Mejia Torres, R. E., Franco Garcia, D. N., Fontecha Sandoval, G. A., Hernandez Santana, A., Singh, P., Mancero Bucheli, S. T., Saboya, M., … Paz, M. Y. (2014). Prevalence and intensity of soil-transmitted helminthiasis, prevalence of malaria and nutritional status of school going children in honduras. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10), e3248. doi:10.1371/journal.pntd.0003248</t>
+    </r>
+  </si>
+  <si>
+    <t>Latin America, Caribbean</t>
+  </si>
+  <si>
+    <r>
+      <t>Saboyá, M. I., Catalá, L., Nicholls, R. S., &amp; Ault, S. K. (2013). Update on the mapping of prevalence and intensity of infection for soil-transmitted helminth infections in Latin America and the Caribbean: a call for action. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e2419. doi:10.1371/journal.pntd.0002419</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3777864/</t>
+  </si>
+  <si>
+    <t>PubMed, LILACS, BIREME, Cochrane, Excel, Tableau 7.0</t>
+  </si>
+  <si>
+    <t>Cote D'Ivoire</t>
+  </si>
+  <si>
+    <t>Kato-Katz, Excel, STATA 13.1, ArcMap 10.5</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6283482/</t>
+  </si>
+  <si>
+    <r>
+      <t>Assaré, R. K., Tra, M., Ouattara, M., Hürlimann, E., Coulibaly, J. T., N'Goran, E. K., &amp; Utzinger, J. (2018). Sensitivity of the Point-of-Care Circulating Cathodic Antigen Urine Cassette Test for Diagnosis of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in Low-Endemicity Settings in Côte d'Ivoire. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The American journal of tropical medicine and hygiene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), 1567-1572.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gazzinelli, A., Oliveira-Prado, R., Matoso, L. F., Veloso, B. M., Andrade, G., Kloos, H., Bethony, J. M., Assunção, R. M., … Correa-Oliveira, R. (2017). Schistosoma mansoni reinfection: Analysis of risk factors by classification and regression tree (CART) modeling. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PloS one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(8), e0182197. doi:10.1371/journal.pone.0182197</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5558968/</t>
+  </si>
+  <si>
+    <t>R, CART modeling, Kato-Katz, Excel, SPSS 19.0, STATA 12</t>
+  </si>
+  <si>
+    <t>CART analysis</t>
+  </si>
+  <si>
+    <t>Angiostrongylus cantonensis</t>
+  </si>
+  <si>
+    <r>
+      <t>Hu, Q. A., Zhang, Y., Guo, Y. H., Lv, S., Xia, S., Liu, H. X., Fang, Y., Liu, Q., Zhu, D., Zhang, Q. M., Yang, C. L., … Lin, G. Y. (2018). Small-scale spatial analysis of intermediate and definitive hosts of Angiostrongylus cantonensis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infectious diseases of poverty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 100. doi:10.1186/s40249-018-0482-8</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6192004/</t>
+  </si>
+  <si>
+    <t>GPS, SAS 9.3, ArcGIS 10.2, SaTScan</t>
+  </si>
+  <si>
+    <t>Sample size is snails</t>
+  </si>
+  <si>
+    <r>
+      <t>York, E. M., Butler, C. J., &amp; Lord, W. D. (2014). Global decline in suitable habitat for Angiostrongylus ( = Parastrongylus) cantonensis: the role of climate change. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PloS one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(8), e103831. doi:10.1371/journal.pone.0103831</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4133392/</t>
+  </si>
+  <si>
+    <t>MaxEnt, WorldClim, IPCC models</t>
+  </si>
+  <si>
+    <t>86 locations</t>
+  </si>
+  <si>
+    <t>Taenia saginata</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>PubMed, Web of Science, OpenGrey, CABDirect, ArcGis 10.3</t>
+  </si>
+  <si>
+    <t>66 papers</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6149206/</t>
+  </si>
+  <si>
+    <r>
+      <t>Braae, U. C., Thomas, L. F., Robertson, L. J., Dermauw, V., Dorny, P., Willingham, A. L., Saratsis, A., … Devleesschauwer, B. (2018). Epidemiology of Taenia saginata taeniosis/cysticercosis: a systematic review of the distribution in the Americas. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 518. doi:10.1186/s13071-018-3079-y</t>
+    </r>
+  </si>
+  <si>
+    <t>Catalonia</t>
+  </si>
+  <si>
+    <t>SaTScan, QGIS, R, Monte Carlo simulations</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6027794/</t>
+  </si>
+  <si>
+    <t>No clear sample size</t>
+  </si>
+  <si>
+    <r>
+      <t>Laranjo-González, M., Devleesschauwer, B., Jansen, F., Dorny, P., Dupuy, C., Requena-Méndez, A., &amp; Allepuz, A. (2018). Epidemiology and economic impact of bovine cysticercosis and taeniosis caused by Taenia saginata in northeastern Spain (Catalonia). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 376. doi:10.1186/s13071-018-2931-4</t>
+    </r>
+  </si>
+  <si>
+    <t>Echinococcus granulosus</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5510903/</t>
+  </si>
+  <si>
+    <t>SaTScan, MEGA 7, Epi Info</t>
+  </si>
+  <si>
+    <t>353 cases</t>
+  </si>
+  <si>
+    <t>ArcGIS 10.1, Excel</t>
+  </si>
+  <si>
+    <t>78 counties</t>
+  </si>
+  <si>
+    <t>Spatial analysis and risk mapping</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5991852/</t>
+  </si>
+  <si>
+    <r>
+      <t>de Avelar, B. R., Marcelino, L. C., de Campos, R. F., Santos, A., &amp; Martins, I. (2016). Spatial analysis on the risk of bovine cysticercosis occurrence in the state of Espírito Santo, Brazil. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasite epidemiology and control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 116-123. doi:10.1016/j.parepi.2016.04.003</t>
+    </r>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <r>
+      <t>Dupuy, C., Morlot, C., Demont, P., Callait-Cardinal, M. P., Ducrot, C., Calavas, D., &amp; Gay, E. (2015). Spatial Analysis when the Location of Infection is Uncertain: An Innovative Approach Using an Animal- Herd-Level Weighted Analysis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Online Journal of Public Health Informatics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), e21. doi:10.5210/ojphi.v7i1.5686</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4370938/</t>
+  </si>
+  <si>
+    <t>Methods unclear</t>
+  </si>
+  <si>
+    <t>4,557,593 cattle</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>ELISA, logistic regression models</t>
+  </si>
+  <si>
+    <t>Cross-sectional survey</t>
+  </si>
+  <si>
+    <r>
+      <t>Wardrop, N. A., Thomas, L. F., Atkinson, P. M., de Glanville, W. A., Cook, E. A., Wamae, C. N., Gabriël, S., Dorny, P., Harrison, L. J., … Fèvre, E. M. (2015). The Influence of Socio-economic, Behavioural and Environmental Factors on Taenia spp. Transmission in Western Kenya: Evidence from a Cross-Sectional Survey in Humans and Pigs. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(12), e0004223. doi:10.1371/journal.pntd.0004223</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4671581/</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>QGIS, STATA 12</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5886389/</t>
+  </si>
+  <si>
+    <r>
+      <t>Herrador, Z., Fernandez-Martinez, A., Benito, A., &amp; Lopez-Velez, R. (2018). Clinical Cysticercosis epidemiology in Spain based on the hospital discharge database: What's new?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), e0006316. doi:10.1371/journal.pntd.0006316</t>
+    </r>
+  </si>
+  <si>
+    <t>Review of cysticercosis cases</t>
+  </si>
+  <si>
+    <t>Central America and the Caribbean basin</t>
+  </si>
+  <si>
+    <t>PubMed, LAMJOL, Cab Direct, Société de Pathologie Exotique</t>
+  </si>
+  <si>
+    <t>51 records</t>
+  </si>
+  <si>
+    <r>
+      <t>Braae, U. C., Devleesschauwer, B., Sithole, F., Wang, Z., &amp; Willingham, A. L. (2017). Mapping occurrence of Taenia solium taeniosis/cysticercosis and areas at risk of porcine cysticercosis in Central America and the Caribbean basin. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 424. doi:10.1186/s13071-017-2362-7</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5604492/</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>GLM, QGIS, R</t>
+  </si>
+  <si>
+    <r>
+      <t>Porphyre, V., Rasamoelina-Andriamanivo, H., Rakotoarimanana, A., Rasamoelina, O., Bernard, C., Jambou, R., &amp; Cardinale, E. (2015). Spatio-temporal prevalence of porcine cysticercosis in Madagascar based on meat inspection. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 391. doi:10.1186/s13071-015-0975-2</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4513394/</t>
+  </si>
+  <si>
+    <r>
+      <t>Stensgaard, A. S., Vounatsou, P., Onapa, A. W., Utzinger, J., Pedersen, E. M., Kristensen, T. K., &amp; Simonsen, P. E. (2016). Ecological Drivers of Mansonella perstans Infection in Uganda and Patterns of Co-endemicity with Lymphatic Filariasis and Malaria. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), e0004319. doi:10.1371/journal.pntd.0004319</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4721671/</t>
+  </si>
+  <si>
+    <t>Geospatial modeling</t>
+  </si>
+  <si>
+    <t>MODIS Terra, LST, NDVI, GPS, ArcGIS 10.1, OpenBUGS 3.1.1, Stata 13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Mansonella perstans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Loa loa</t>
+    </r>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Minitab 16, Stata 9.0</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3191124/</t>
+  </si>
+  <si>
+    <r>
+      <t>Mwase, E. T., Stensgaard, A. S., Nsakashalo-Senkwe, M., Mubila, L., Mwansa, J., Songolo, P., Shawa, S. T., … Simonsen, P. E. (2014). Mapping the geographical distribution of lymphatic filariasis in Zambia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), e2714. doi:10.1371/journal.pntd.0002714</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3930513/</t>
+  </si>
+  <si>
+    <t>MaxEnt, GPS, SPSS, Excel, remote sensing, LST, NDVI, Stata 10, ArcMap, MODIS reprojection tool</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Wuchereria bancrofti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Loa loa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Mansonella perstans</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Deribe, K., Beng, A. A., Cano, J., Njouendo, A. J., Fru-Cho, J., Awah, A. R., Eyong, M. E., Chounna Ndongmo, P. W., Giorgi, E., Pigott, D. M., Golding, N., Pullan, R. L., Noor, A. M., Enquselassie, F., Murray, C., Brooker, S. J., Hay, S. I., Enyong, P., Newport, M. J., Wanji, S., … Davey, G. (2018). Mapping the geographical distribution of podoconiosis in Cameroon using parasitological, serological, and clinical evidence to exclude other causes of lymphedema. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), e0006126. doi:10.1371/journal.pntd.0006126</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5764238/</t>
+  </si>
+  <si>
+    <t>Alere FTS test, SD BIOLINE test, SRTM, AfSIS, STATA 15, ArcGIS 10.3</t>
+  </si>
+  <si>
+    <r>
+      <t>Koroma, J. B., Bangura, M. M., Hodges, M. H., Bah, M. S., Zhang, Y., &amp; Bockarie, M. J. (2012). Lymphatic filariasis mapping by immunochromatographic test cards and baseline microfilaria survey prior to mass drug administration in Sierra Leone. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 10. doi:10.1186/1756-3305-5-10</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3268710/</t>
+  </si>
+  <si>
+    <t>ICT cards, Epi-Info 3.5.2, SPSS, ArcGIS 10</t>
+  </si>
+  <si>
+    <t>Spatial analysis and predicted prevalence mapping</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <r>
+      <t>Mathieu, E., Dorkenoo, A., Otogbe, F. K., Budge, P. J., &amp; Sodahlon, Y. K. (2011). A laboratory-based surveillance system for Wuchereria bancrofti in Togo: a practical model for resource-poor settings. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The American journal of tropical medicine and hygiene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), 988-93.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3110357/</t>
+  </si>
+  <si>
+    <t>ArcView GIS</t>
+  </si>
+  <si>
+    <r>
+      <t>Dorkenoo, M. A., Bronzan, R., Yehadji, D., Tchalim, M., Yakpa, K., Etassoli, S., Adjeloh, P., Maman, I., … Sodahlon, Y. (2018). Surveillance for lymphatic filariasis after stopping mass drug administration in endemic districts of Togo, 2010-2015. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 244. doi:10.1186/s13071-018-2843-3</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5902853/</t>
+  </si>
+  <si>
+    <t>ICT cards, ELISA, Excel, Epi-Info 3.5.3, ArcGIS 10.4</t>
+  </si>
+  <si>
+    <t>I think this study and the one below it are related, but I'm not sure what to call them</t>
+  </si>
+  <si>
+    <r>
+      <t>Richards, F. O., Eigege, A., Miri, E. S., Kal, A., Umaru, J., Pam, D., Rakers, L. J., Sambo, Y., Danboyi, J., Ibrahim, B., Adelamo, S. E., Ogah, G., Goshit, D., Oyenekan, O. K., Mathieu, E., Withers, P. C., Saka, Y. A., Jiya, J., … Hopkins, D. R. (2011). Epidemiological and entomological evaluations after six years or more of mass drug administration for lymphatic filariasis elimination in Nigeria. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10), e1346.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3191131/</t>
+  </si>
+  <si>
+    <t>ELISA, ICT tests, Epi Info 6, SAS, Stata 8.2, SUDAAN</t>
+  </si>
+  <si>
+    <t>Testing for LF antigen</t>
+  </si>
+  <si>
+    <t>Loa loa</t>
+  </si>
+  <si>
+    <t>Review article featuring a map</t>
+  </si>
+  <si>
+    <r>
+      <t>Akue, J. P., Eyang-Assengone, E. R., &amp; Dieki, R. (2018). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Loa loa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> infection detection using biomarkers: current perspectives. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Research and reports in tropical medicine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 43-48. doi:10.2147/RRTM.S132380</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6047611/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Wuchereria bancrofti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Loa loa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Onchocerca volvulus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cano, J., Basáñez, M. G., O'Hanlon, S. J., Tekle, A. H., Wanji, S., Zouré, H. G., Rebollo, M. P., … Pullan, R. L. (2018). Identifying co-endemic areas for major filarial infections in sub-Saharan Africa: seeking synergies and preventing severe adverse events during mass drug administration campaigns. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 70. doi:10.1186/s13071-018-2655-5</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5791223/</t>
+  </si>
+  <si>
+    <t>Co-endemicity study, no sample size given</t>
+  </si>
+  <si>
+    <t>ArcGIS 10.3, R</t>
+  </si>
+  <si>
+    <r>
+      <t>Brito, M., Paulo, R., Van-Dunem, P., Martins, A., Unnasch, T. R., Novak, R. J., Jacob, B., Stanton, M. C., Molyneux, D. H., … Kelly-Hope, L. A. (2017). Rapid integrated clinical survey to determine prevalence and co-distribution patterns of lymphatic filariasis and onchocerciasis in a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Loa loa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> co-endemic area: The Angolan experience. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasite epidemiology and control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), 71-84. doi:10.1016/j.parepi.2017.05.001</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5952692/</t>
+  </si>
+  <si>
+    <t>Prevalence mapping and risk mapping</t>
+  </si>
+  <si>
+    <t>ArcGIS 10, ArcInfo 10, REMO method, SPSS</t>
+  </si>
+  <si>
+    <t>Co-endemicity study, can't tell if first map here is actually a risk map?</t>
+  </si>
+  <si>
+    <t>All individuals tested negative after MDA</t>
+  </si>
+  <si>
+    <t>BinaxNow Filariasis antigen test, GPS</t>
+  </si>
+  <si>
+    <r>
+      <t>Odongo-Aginya, E. I., Olia, A., Luwa, K. J., Nagayasu, E., Auma, A. M., Egitat, G., Mwesigwa, G., Ogino, Y., Kimura, E., … Horii, T. (2017). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wuchereria bancrofti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> infection at four primary schools and surrounding communities with no previous blood surveys in northern Uganda: the prevalence after mass drug administrations and a report on suspected non-filarial endemic elephantiasis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tropical medicine and health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 20. doi:10.1186/s41182-017-0060-y</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5556395/</t>
+  </si>
+  <si>
+    <t>ELISA, GPS, PCR, immunological assays, FACS analysis, innate gene profiling</t>
+  </si>
+  <si>
+    <t>Sample size not given</t>
+  </si>
+  <si>
+    <r>
+      <t>Ateba Ngoa, U., Zinsou, J. F., Kassa, R. F., Ngoune Feugap, E., Honkpehedji, Y. J., Massinga-Loembe, M., Kenguele Moundounga, H., Nkoma Mouima, A. M., Mbenkep, L. H., Wammes, L. J., Mbow, M., Kruize, Y., Mombo-Ngoma, G., Bouyoukou Hounkpatin, A. L., Dejon Agobe, J. C., Saadou, I., Lell, B., Smits, H., Kremsner, P. G., Yazdanbakhsh, M., … Adegnika, A. A. (2014). Assessment of the effect of Schistosoma haematobium co infection on malaria parasites and immune responses in rural populations in Gabon: study protocol. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SpringerPlus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 388. doi:10.1186/2193-1801-3-388</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4128953/</t>
+  </si>
+  <si>
+    <r>
+      <t>Koroma, J. B., Sesay, S., Sonnie, M., Hodges, M. H., Sahr, F., Zhang, Y., &amp; Bockarie, M. J. (2013). Impact of three rounds of mass drug administration on lymphatic filariasis in areas previously treated for onchocerciasis in Sierra Leone. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), e2273. doi:10.1371/journal.pntd.0002273</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3681681/</t>
+  </si>
+  <si>
+    <t>Excel, SPSS, kriging, ArcGIS 10</t>
+  </si>
+  <si>
+    <t>Sample size not given. It's unclear whether this study was testing for all three of these helminths or just wb.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Wuchereria bancrofti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Loa loa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Brant, T. A., Okorie, P. N., Ogunmola, O., Ojeyode, N. B., Fatunade, S. B., Davies, E., Saka, Y., Stanton, M. C., Molyneux, D. H., Russell Stothard, J., … Kelly-Hope, L. A. (2017). Integrated risk mapping and landscape characterisation of lymphatic filariasis and loiasis in South West Nigeria. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasite epidemiology and control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 21-35. doi:10.1016/j.parepi.2017.12.001</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5952684/</t>
+  </si>
+  <si>
+    <t>Southwest Nigeria</t>
+  </si>
+  <si>
+    <t>GPS, ICT, ArcGIS 10, GlobCover, Spatial Analyst Tools, PCR, SPSS, Excel</t>
+  </si>
+  <si>
+    <r>
+      <t>Okorie, P. N., Ademowo, G. O., Saka, Y., Davies, E., Okoronkwo, C., Bockarie, M. J., Molyneux, D. H., … Kelly-Hope, L. A. (2013). Lymphatic filariasis in Nigeria; micro-stratification overlap mapping (MOM) as a prerequisite for cost-effective resource utilization in control and surveillance. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e2416. doi:10.1371/journal.pntd.0002416</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3764235/</t>
+  </si>
+  <si>
+    <t>Prevalence mapping and micro-stratification overlap mapping from systematic literature review</t>
+  </si>
+  <si>
+    <t>Excel, STATA 12, ArcGIS 10, REMO surveys, PubMed, JSTOR, Google, SCOPUS</t>
+  </si>
+  <si>
+    <t>Co-endemicity study, various sample sizes for each portion of this study</t>
+  </si>
+  <si>
+    <t>Prevalence mapping and risk mapping based on systematic literature review</t>
+  </si>
+  <si>
+    <t>West and Central Africa</t>
+  </si>
+  <si>
+    <r>
+      <t>Kelly-Hope, L. A., Hemingway, J., Taylor, M. J., &amp; Molyneux, D. H. (2018). Increasing evidence of low lymphatic filariasis prevalence in high risk Loa loa areas in Central and West Africa: a literature review. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 349. doi:10.1186/s13071-018-2900-y</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6004093/</t>
+  </si>
+  <si>
+    <t>PubMed, JSTOR, SCOPUS, Google</t>
+  </si>
+  <si>
+    <t>PASW Statistics, ArcGIS 10.2, GPS, ICT, kriging</t>
+  </si>
+  <si>
+    <t>Prevalence mapping and predicted prevalence mapping</t>
+  </si>
+  <si>
+    <r>
+      <t>Nana-Djeunga, H. C., Tchatchueng-Mbougua, J. B., Bopda, J., Mbickmen-Tchana, S., Elong-Kana, N., Nnomzo'o, E., Akame, J., Tarini, A., Zhang, Y., Njiokou, F., … Kamgno, J. (2015). Mapping of Bancroftian Filariasis in Cameroon: Prospects for Elimination. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e0004001. doi:10.1371/journal.pntd.0004001</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4564182/</t>
+  </si>
+  <si>
+    <t>16 studies</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <r>
+      <t>Ginandjar, P., Saraswati, L. D., Suparyanto, D., Sakundarno, M., &amp; Supali, T. (2018). The Prevalence of Lymphatic Filariasis in Elementary School Children Living in Endemic Areas: A Baseline Survey Prior to Mass Drug Administration in Pekalongan District-Indonesia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Iranian journal of public health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10), 1484-1492.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6277735/</t>
+  </si>
+  <si>
+    <t>ICT, GIS, GPS</t>
+  </si>
+  <si>
+    <t>Is "microfilaemia" always referring to these three species? Post-MDA</t>
+  </si>
+  <si>
+    <t>ICT, SPSS, Excel, ArcGIS 10.4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Loa loa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Onchocerca volvulus</t>
+    </r>
+  </si>
+  <si>
+    <t>ArcGIS</t>
+  </si>
+  <si>
+    <t>Prevalence mapping and overlap mapping in a review article</t>
+  </si>
+  <si>
+    <t>No sample size listed</t>
+  </si>
+  <si>
+    <r>
+      <t>Molyneux, D. H., Hopkins, A., Bradley, M. H., &amp; Kelly-Hope, L. A. (2014). Multidimensional complexities of filariasis control in an era of large-scale mass drug administration programmes: a can of worms. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 363. doi:10.1186/1756-3305-7-363</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4261528/</t>
+  </si>
+  <si>
+    <r>
+      <t>Koroma, J. B., Sesay, S., Conteh, A., Paye, J., Bah, M., Sonnie, M., Hodges, M. H., … Zhang, Y. (2018). Progress on elimination of lymphatic filariasis in Sierra Leone. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 334. doi:10.1186/s13071-018-2915-4</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5987388/</t>
+  </si>
+  <si>
+    <r>
+      <t>Simonsen, P. E., Derua, Y. A., Magesa, S. M., Pedersen, E. M., Stensgaard, A. S., Malecela, M. N., &amp; Kisinza, W. N. (2014). Lymphatic filariasis control in Tanga Region, Tanzania: status after eight rounds of mass drug administration. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 507. doi:10.1186/s13071-014-0507-5</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4233105/</t>
+  </si>
+  <si>
+    <t>ICT, GPS, QGIS 2.0, ArcGIS 10.1</t>
+  </si>
+  <si>
+    <t>Post-MDA. Various sample sizes.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5322668/</t>
+  </si>
+  <si>
+    <r>
+      <t>Njenga, S. M., Kanyi, H. M., Mutungi, F. M., Okoyo, C., Matendechero, H. S., Pullan, R. L., Halliday, K. E., Brooker, S. J., Wamae, C. N., Onsongo, J. K., … Won, K. Y. (2017). Assessment of lymphatic filariasis prior to re-starting mass drug administration campaigns in coastal Kenya. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 99. doi:10.1186/s13071-017-2044-5</t>
+    </r>
+  </si>
+  <si>
+    <t>Pre-MDA.</t>
+  </si>
+  <si>
+    <t>ICT, GPS, GLS random effects model, GLLAMM, ArcGIS 10.2.2, STATA 14.0</t>
+  </si>
+  <si>
+    <t>Southwest Cameroon</t>
+  </si>
+  <si>
+    <t>Epi Info 6, SPSS 20</t>
+  </si>
+  <si>
+    <t>Not 100% sure if this is just mapping onchocerca volvulus or also loa loa</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4393872/</t>
+  </si>
+  <si>
+    <r>
+      <t>Wanji, S., Kengne-Ouafo, J. A., Esum, M. E., Chounna, P. W., Tendongfor, N., Adzemye, B. F., Eyong, J. E., Jato, I., Datchoua-Poutcheu, F. R., Kah, E., Enyong, P., … Taylor, D. W. (2015). Situation analysis of parasitological and entomological indices of onchocerciasis transmission in three drainage basins of the rain forest of South West Cameroon after a decade of ivermectin treatment. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 202. doi:10.1186/s13071-015-0817-2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3963,6 +6446,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3985,7 +6473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4027,6 +6515,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4342,10 +6831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -6379,6 +8868,1160 @@
       </c>
       <c r="G79" s="4" t="s">
         <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H80" s="4">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C81" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H81" s="4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C82" s="11">
+        <v>2008</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H82" s="4">
+        <v>562</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C83" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C84" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H84" s="4">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C85" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H85" s="4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C86" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H86" s="4">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C87" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H87" s="4">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C88" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H88" s="4">
+        <v>2192</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C89" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C90" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="C91" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="C92" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C93" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C94" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C95" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H95" s="4">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C96" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C97" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C98" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H98" s="4">
+        <v>68432</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="C99" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H99" s="4">
+        <v>12207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C100" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H100" s="4">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C101" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="H101" s="4">
+        <v>9964</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C102" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H102" s="4">
+        <v>10178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C103" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H103" s="4">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C104" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H104" s="4">
+        <v>7949</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C105" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H105" s="4">
+        <v>33369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C106" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="H106" s="4">
+        <v>6489</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C107" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C108" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C109" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H109" s="4">
+        <v>2007</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="C110" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H110" s="4">
+        <v>982</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="C111" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C112" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C113" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H113" s="4">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C114" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C115" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C116" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="H116" s="4">
+        <v>10943</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C117" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="H117" s="4">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C118" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="H118" s="4">
+        <v>4230</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C119" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C120" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C121" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H121" s="4">
+        <v>2976</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C122" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="H122" s="4">
+        <v>2797</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73945F9D-21CF-8945-8887-7CC62C758F1D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{074C343E-B03A-7544-AF5B-995D65D76697}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
+    <workbookView xWindow="1020" yWindow="940" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="674">
   <si>
     <t>Latin name</t>
   </si>
@@ -5783,6 +5783,9 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5952684/</t>
   </si>
   <si>
+    <t>Risk mapping</t>
+  </si>
+  <si>
     <t>Southwest Nigeria</t>
   </si>
   <si>
@@ -6187,6 +6190,9 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4233105/</t>
   </si>
   <si>
+    <t>Post-MDA</t>
+  </si>
+  <si>
     <t>ICT, GPS, QGIS 2.0, ArcGIS 10.1</t>
   </si>
   <si>
@@ -6298,6 +6304,1259 @@
       </rPr>
       <t>, 202. doi:10.1186/s13071-015-0817-2</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Sime, H., Gass, K. M., Mekasha, S., Assefa, A., Woyessa, A., Shafi, O., Meribo, K., Kebede, B., Ogoussan, K., Pelletreau, S., Bockarie, M. J., Kebede, A., … Rebollo, M. P. (2018). Results of a confirmatory mapping tool for Lymphatic filariasis endemicity classification in areas where transmission was uncertain in Ethiopia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), e0006325. doi:10.1371/journal.pntd.0006325</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5886699/</t>
+  </si>
+  <si>
+    <t>Confirmatory mapping</t>
+  </si>
+  <si>
+    <t>ICT, GPS, Excel, STATA, ArcMap 10.5</t>
+  </si>
+  <si>
+    <r>
+      <t>Cano, J., Rebollo, M. P., Golding, N., Pullan, R. L., Crellen, T., Soler, A., Kelly-Hope, L. A., Lindsay, S. W., Hay, S. I., Bockarie, M. J., … Brooker, S. J. (2014). The global distribution and transmission limits of lymphatic filariasis: past and present. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 466. doi:10.1186/s13071-014-0466-x</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4197264/</t>
+  </si>
+  <si>
+    <t>ICT, MEDLINE, PubMed, EMBASE, SCOPUS, gridded digital elevation models, SRTM, ArcGIS 10.1, boosted regression trees</t>
+  </si>
+  <si>
+    <t>6562 surveys</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Wuchereria bancrofti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Brugia malayi,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Brugia timori</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dickson, B., Graves, P. M., &amp; McBride, W. J. (2017). Lymphatic Filariasis in Mainland Southeast Asia: A Systematic Review and Meta-Analysis of Prevalence and Disease Burden. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tropical medicine and infectious disease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), 32. doi:10.3390/tropicalmed2030032</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6082107/</t>
+  </si>
+  <si>
+    <t>PubMed, MEDLINE, WHO library, Excel, STATA 12.1</t>
+  </si>
+  <si>
+    <t>57 papers</t>
+  </si>
+  <si>
+    <t>Pre-MDA</t>
+  </si>
+  <si>
+    <r>
+      <t>Mengistu, B., Deribe, K., Kebede, F., Martindale, S., Hassan, M., Sime, H., Mackenzie, C., Mulugeta, A., Tamiru, M., Sileshi, M., Hailu, A., Gebre, T., Fentaye, A., … Kebede, B. (2017). The National Programme to Eliminate Lymphatic Filariasis from Ethiopia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ethiopian medical journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Suppl 1), 45-54.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5582637/</t>
+  </si>
+  <si>
+    <t>The Gambia</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4364952/</t>
+  </si>
+  <si>
+    <r>
+      <t>Rebollo, M. P., Sambou, S. M., Thomas, B., Biritwum, N. K., Jaye, M. C., Kelly-Hope, L., Escalada, A. G., Molyneux, D. H., … Bockarie, M. J. (2015). Elimination of lymphatic filariasis in the Gambia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), e0003642. doi:10.1371/journal.pntd.0003642</t>
+    </r>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>Review of three surveys</t>
+  </si>
+  <si>
+    <t>LF, onchocerciasis, schistosomiasis, and soil-transmitted helminthiases</t>
+  </si>
+  <si>
+    <r>
+      <t>Lustigman, S., Prichard, R. K., Gazzinelli, A., Grant, W. N., Boatin, B. A., McCarthy, J. S., &amp; Basáñez, M. G. (2012). A research agenda for helminth diseases of humans: the problem of helminthiases. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), e1582.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3335854/</t>
+  </si>
+  <si>
+    <t>No methods or sample size offered</t>
+  </si>
+  <si>
+    <t>ICT, ELISA, ArcGIS, Excel, STATA 13.1</t>
+  </si>
+  <si>
+    <r>
+      <t>Coutts, S. P., King, J. D., Pa'au, M., Fuimaono, S., Roth, J., King, M. R., Lammie, P. J., Lau, C. L., … Graves, P. M. (2017). Prevalence and risk factors associated with lymphatic filariasis in American Samoa after mass drug administration. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tropical medicine and health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 22. doi:10.1186/s41182-017-0063-8</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5543440/</t>
+  </si>
+  <si>
+    <t>Brugia malayi</t>
+  </si>
+  <si>
+    <t>GPS, ArcGIS 10, Excel</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5789669/</t>
+  </si>
+  <si>
+    <r>
+      <t>Mallawarachchi, C. H., Nilmini Chandrasena, T., Premaratna, R., Mallawarachchi, S., &amp; de Silva, N. R. (2018). Human infection with sub-periodic Brugia spp. in Gampaha District, Sri Lanka: a threat to filariasis elimination status?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 68. doi:10.1186/s13071-018-2649-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Moss, D. M., Chard, A. N., Trinies, V., Doumbia, S., Freeman, M. C., &amp; Lammie, P. J. (2017). Serological Responses to Filarial Antigens in Malian Children Attending Elementary Schools. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The American journal of tropical medicine and hygiene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 229-232.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5239699/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wuchereria bancrofti </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> Brugia malayi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Trichuris trichiura</t>
+    </r>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>10276 and 19643</t>
+  </si>
+  <si>
+    <t>Sample sizes in different regions</t>
+  </si>
+  <si>
+    <t>Kato-Katz, LST, NDVI, DPWB, ArcGIS 10.4, QGIS 1.7.3, DIVA GIS, PhilGIS, Stata 13.1, R, OpenBUGS</t>
+  </si>
+  <si>
+    <r>
+      <t>Owada, K., Lau, C. L., Leonardo, L., Clements, A., Yakob, L., Nielsen, M., Carabin, H., … Soares Magalhães, R. J. (2018). Spatial distribution and populations at risk of A. lumbricoides and T. trichiura co-infections and infection intensity classes: an ecological study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 535. doi:10.1186/s13071-018-3107-y</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6171148/</t>
+  </si>
+  <si>
+    <t>Fasciola gigantica</t>
+  </si>
+  <si>
+    <r>
+      <t>Jean-Richard, V., Crump, L., Abicho, A. A., Naré, N. B., Greter, H., Hattendorf, J., Schelling, E., … Zinsstag, J. (2014). Prevalence of Fasciola gigantica infection in slaughtered animals in south-eastern Lake Chad area in relation to husbandry practices and seasonal water levels. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BMC veterinary research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 81. doi:10.1186/1746-6148-10-81</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4022263/</t>
+  </si>
+  <si>
+    <t>Microsoft Access 2002, Epi Info 3.5.1, STATA IC 10.1, ArcMap 9.3, Google Earth</t>
+  </si>
+  <si>
+    <r>
+      <t>Rahman, A., Islam, S., Talukder, M. H., Hassan, M. K., Dhand, N. K., &amp; Ward, M. P. (2017). Fascioliasis risk factors and space-time clusters in domestic ruminants in Bangladesh. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 228. doi:10.1186/s13071-017-2168-7</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5422951/</t>
+  </si>
+  <si>
+    <t>Risk mapping and spatial clustering</t>
+  </si>
+  <si>
+    <t>1723971 cases</t>
+  </si>
+  <si>
+    <t>DIVA GIS 7.5, ArcGIS 10.3.1, Excel, GeoDa 1.8.14, R, SaTScan</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <r>
+      <t>Bargues, M. D., Malandrini, J. B., Artigas, P., Soria, C. C., Velásquez, J. N., Carnevale, S., Mateo, L., Khoubbane, M., … Mas-Coma, S. (2016). Human fascioliasis endemic areas in Argentina: multigene characterisation of the lymnaeid vectors and climatic-environmental assessment of the transmission pattern. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 306. doi:10.1186/s13071-016-1589-z</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4882814/</t>
+  </si>
+  <si>
+    <t>PCR, MEGA 6.0.6, PAUP 4.0 b10, jModeltest 0.1.1, MrBayes 3.1.2, LocClim 1.10</t>
+  </si>
+  <si>
+    <t>Sample size is snails I think</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Fasciola gigantica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma haematobium</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pedersen, U. B., Stendel, M., Midzi, N., Mduluza, T., Soko, W., Stensgaard, A. S., Vennervald, B. J., Mukaratirwa, S., … Kristensen, T. K. (2014). Modelling climate change impact on the spatial distribution of fresh water snails hosting trematodes in Zimbabwe. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 536. doi:10.1186/s13071-014-0536-0</t>
+    </r>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4299310/</t>
+  </si>
+  <si>
+    <t>RCM, DIVA GIS, Maxent</t>
+  </si>
+  <si>
+    <t>Sample size is snails. This study appears to combine the prevalence of snails with a study tracking prevalence of schistosomiasis and fascioliasis in schoolchildren.</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <r>
+      <t>Fox, N. J., White, P. C., McClean, C. J., Marion, G., Evans, A., &amp; Hutchings, M. R. (2011). Predicting impacts of climate change on Fasciola hepatica risk. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PloS one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), e16126. doi:10.1371/journal.pone.0016126</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3018428/</t>
+  </si>
+  <si>
+    <t>Ollerenshaw index, GAM, R, ArcGIS</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <r>
+      <t>Bargues, M. D., Gayo, V., Sanchis, J., Artigas, P., Khoubbane, M., Birriel, S., &amp; Mas-Coma, S. (2017). DNA multigene characterization of Fasciola hepatica and Lymnaea neotropica and its fascioliasis transmission capacity in Uruguay, with historical correlation, human report review and infection risk analysis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), e0005352. doi:10.1371/journal.pntd.0005352</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5310921/</t>
+  </si>
+  <si>
+    <t>Maps prevalence and movement of livestock</t>
+  </si>
+  <si>
+    <t>PCR, BLASTN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Trichuris trichiura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>, hookworm</t>
+    </r>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <r>
+      <t>Chammartin, F., Scholte, R. G., Malone, J. B., Bavia, M. E., Nieto, P., Utzinger, J., &amp; Vounatsou, P. (2013). Modelling the geographical distribution of soil-transmitted helminth infections in Bolivia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 152. doi:10.1186/1756-3305-6-152</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3681678/</t>
+  </si>
+  <si>
+    <t>Remote sensing, EVI, NDVI, ArcMap 10.0, WinBUGS 14, Stata 10.0</t>
+  </si>
+  <si>
+    <t>59 studies</t>
+  </si>
+  <si>
+    <t>Based on systematic literature review using PubMed and Web of Knowledge</t>
+  </si>
+  <si>
+    <r>
+      <t>Kim, C. S., Echaubard, P., Suwannatrai, A., Kaewkes, S., Wilcox, B. A., &amp; Sripa, B. (2016). Seasonal and Spatial Environmental Influence on Opisthorchis viverrini Intermediate Hosts, Abundance, and Distribution: Insights on Transmission Dynamics and Sustainable Control. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(11), e0005121. doi:10.1371/journal.pntd.0005121</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5120785/</t>
+  </si>
+  <si>
+    <t>GPS, cluster analysis, principal component analysis, GLMM, R 3.0.1, kriging</t>
+  </si>
+  <si>
+    <t>No sample size given</t>
+  </si>
+  <si>
+    <r>
+      <t>Cantacessi, C., Prasopdee, S., Sotillo, J., Mulvenna, J., Tesana, S., &amp; Loukas, A. (2013). Coming out of the shell: building the molecular infrastructure for research on parasite-harbouring snails. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e2284. doi:10.1371/journal.pntd.0002284</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3772040/</t>
+  </si>
+  <si>
+    <t>BLASTN, BLASTX</t>
+  </si>
+  <si>
+    <t>Review article, possibly in response to the study right above this?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">Opisthorchis viverrini </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Clonorchis sinensis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sripa B. (2008). Concerted action is needed to tackle liver fluke infections in Asia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), e232. doi:10.1371/journal.pntd.0000232</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2386259/</t>
   </si>
 </sst>
 </file>
@@ -6831,10 +8090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="135" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -9772,10 +11031,10 @@
         <v>521</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H113" s="4">
         <v>870</v>
@@ -9786,25 +11045,25 @@
         <v>536</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C114" s="11">
         <v>2013</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -9812,25 +11071,25 @@
         <v>510</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C115" s="11">
         <v>2018</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -9838,22 +11097,22 @@
         <v>89</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C116" s="11">
         <v>2015</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>166</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H116" s="4">
         <v>10943</v>
@@ -9864,22 +11123,22 @@
         <v>89</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C117" s="11">
         <v>2018</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H117" s="4">
         <v>1033</v>
@@ -9890,13 +11149,13 @@
         <v>86</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C118" s="11">
         <v>2018</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>354</v>
@@ -9905,39 +11164,39 @@
         <v>107</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H118" s="4">
         <v>4230</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C119" s="11">
         <v>2014</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>156</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -9945,13 +11204,13 @@
         <v>89</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C120" s="11">
         <v>2014</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>354</v>
@@ -9960,10 +11219,10 @@
         <v>23</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -9971,13 +11230,13 @@
         <v>89</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C121" s="11">
         <v>2017</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>354</v>
@@ -9986,13 +11245,13 @@
         <v>460</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H121" s="4">
         <v>2976</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -10000,28 +11259,560 @@
         <v>273</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C122" s="11">
         <v>2015</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H122" s="4">
         <v>2797</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C123" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="H123" s="4">
+        <v>18254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C124" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C125" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C126" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H126" s="4">
+        <v>11685</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C127" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C128" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C129" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="H129" s="4">
+        <v>1881</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="C130" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H130" s="4">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="C131" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H131" s="4">
+        <v>805</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C132" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="C133" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="H133" s="4">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="C134" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="C135" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="H135" s="4">
+        <v>50</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="C136" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="H136" s="4">
+        <v>18066</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C137" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="C138" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="C139" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="C140" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="C141" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="C142" s="11">
+        <v>2008</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{074C343E-B03A-7544-AF5B-995D65D76697}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66BFFDA2-B053-944B-920F-F3F40DAA8591}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="940" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
+    <workbookView xWindow="-60" yWindow="700" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="914">
   <si>
     <t>Latin name</t>
   </si>
@@ -7557,13 +7556,3349 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2386259/</t>
+  </si>
+  <si>
+    <r>
+      <t>Piarroux, M., Piarroux, R., Knapp, J., Bardonnet, K., Dumortier, J., Watelet, J., Gerard, A., Beytout, J., Abergel, A., Bresson-Hadni, S., Gaudart, J., FrancEchino Surveillance Network (2013). Populations at risk for alveolar echinococcosis, France. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Emerging infectious diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), 721-8.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3647496/</t>
+  </si>
+  <si>
+    <t>Risk mapping and CART analysis</t>
+  </si>
+  <si>
+    <t>SaTScan, ACCESS 2000, R 2.13.0</t>
+  </si>
+  <si>
+    <r>
+      <t>Ngowi, H. A., Kassuku, A. A., Carabin, H., Mlangwa, J. E., Mlozi, M. R., Mbilinyi, B. P., &amp; Willingham, A. L. (2010). Spatial clustering of porcine cysticercosis in Mbulu district, northern Tanzania. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), e652. doi:10.1371/journal.pntd.0000652</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2850315/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELISA, GPS, Excel, Epi Info 3.5, ArcView 3.2, R, SaTScan, Ripley's K functions, </t>
+  </si>
+  <si>
+    <t>370 households</t>
+  </si>
+  <si>
+    <r>
+      <t>Knapp, J., Combes, B., Umhang, G., Aknouche, S., &amp; Millon, L. (2016). Could the domestic cat play a significant role in the transmission of Echinococcus multilocularis? A study based on qPCR analysis of cat feces in a rural area in FranceLe chat domestique pourrait-il jouer un rôle important dans la transmission d’Echinococcus multilocularis ? Une étude basée sur l’analyse qPCR de fèces de chats dans une zone rurale en France. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasite (Paris, France)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 42.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5782850/</t>
+  </si>
+  <si>
+    <t>Prevalence mapping, sample size is animal feces</t>
+  </si>
+  <si>
+    <t>GPS, QGIS, qPCR</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2809354/pdf/9528824.pdf</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Sample size is foxes</t>
+  </si>
+  <si>
+    <t>CLIPPER, DBASE, Epi Info 6.0, STATISTICA, Regio-Graph 2.0, ArcView</t>
+  </si>
+  <si>
+    <r>
+      <t>Tackmann, K., Löschner, U., Mix, H., Staubach, C., Thulke, H. H., &amp; Conraths, F. J. (1998). Spatial distribution patterns of Echinococcus multilocularis (Leuckart 1863) (Cestoda: Cyclophyllidea: Taeniidae) among red foxes in an endemic focus in Brandenburg, Germany. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Epidemiology and infection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 101-9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Echinococcus mutilocularis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Echinococcus granulosus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cadavid Restrepo, A. M., Yang, Y. R., McManus, D. P., Gray, D. J., Barnes, T. S., Williams, G. M., Soares Magalhães, R. J., … Clements, A. (2018). Environmental risk factors and changing spatial patterns of human seropositivity for Echinococcus spp. in Xiji County, Ningxia Hui Autonomous Region, China. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 159. doi:10.1186/s13071-018-2764-1</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5845300/</t>
+  </si>
+  <si>
+    <t>ELISA, GPS, EVI, ASTER GDEM, DIVA-GIS, ArcGIS 10.3.1, OpenBUGS</t>
+  </si>
+  <si>
+    <r>
+      <t>Giraudoux, P., Raoul, F., Pleydell, D., Li, T., Han, X., Qiu, J., Xie, Y., Wang, H., Ito, A., … Craig, P. S. (2013). Drivers of Echinococcus multilocularis transmission in China: small mammal diversity, landscape or climate?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), e2045.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3591347/</t>
+  </si>
+  <si>
+    <t>ELISA, Global Land Cover 2000, R, GAMMs, BayesX</t>
+  </si>
+  <si>
+    <r>
+      <t>Cadavid Restrepo, A. M., Yang, Y. R., McManus, D. P., Gray, D. J., Barnes, T. S., Williams, G. M., Soares Magalhães, R. J., Hamm, N., … Clements, A. (2018). Spatiotemporal patterns and environmental drivers of human echinococcoses over a twenty-year period in Ningxia Hui Autonomous Region, China. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 108. doi:10.1186/s13071-018-2693-z</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5824458/</t>
+  </si>
+  <si>
+    <t>ArcGIS 10.3.1, Landsat, R, ENVI 5.3, GlobeLand 30, Google Earth Pro, IDW method, ASTER GDEM, MapInfo Pro, OpenBUGS 3.2.3</t>
+  </si>
+  <si>
+    <t>4472 cases</t>
+  </si>
+  <si>
+    <t>Standardized morbidity mapping</t>
+  </si>
+  <si>
+    <t>Comparative evolution mapping</t>
+  </si>
+  <si>
+    <t>Not actually sure if this counts - very weird mapping technique</t>
+  </si>
+  <si>
+    <r>
+      <t>Herrador, Z., Siles-Lucas, M., Aparicio, P., Lopez-Velez, R., Gherasim, A., Garate, T., &amp; Benito, A. (2016). Cystic Echinococcosis Epidemiology in Spain Based on Hospitalization Records, 1997-2012. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(8), e0004942. doi:10.1371/journal.pntd.0004942</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4993502/</t>
+  </si>
+  <si>
+    <t>14010 cases</t>
+  </si>
+  <si>
+    <t>ArcGIS 10.0, Stata 12</t>
+  </si>
+  <si>
+    <r>
+      <t>Huang, D., Li, R., Qiu, J., Sun, X., Yuan, R., Shi, Y., Qu, Y., … Niu, Y. (2018). Geographical Environment Factors and Risk Mapping of Human Cystic Echinococcosis in Western China. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International journal of environmental research and public health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(8), 1729. doi:10.3390/ijerph15081729</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6121593/</t>
+  </si>
+  <si>
+    <t>Prevalence mapping and risk mapping from systematic literature review</t>
+  </si>
+  <si>
+    <t>PubMed, EBSCOhost, Embase, Cochrane Library, SinoMed, WanFang Data, CNKI, ArcGIS 10.4, ASTER GDEM, NDVI, LST, ANUSPLIN, SPSS 23.0</t>
+  </si>
+  <si>
+    <t>34 papers</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Vulnerability mapping</t>
+  </si>
+  <si>
+    <r>
+      <t>Ahmadinejad, M., Obeidavi, Z., Obeidavi, Z., &amp; Alipoor, R. (2017). Modelling the regional vulnerability to Echinococcosis based on environmental factors using fuzzy inference system: A case study of Lorestan Province, west of Iran. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Electronic physician</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(12), 6094-6101. doi:10.19082/6094</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5843439/</t>
+  </si>
+  <si>
+    <t>GPS, ArcGIS, fuzzy inference system, MATLAB, IDRISI Selva</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and hookworm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Brooker, S., &amp; Clements, A. C. (2009). Spatial heterogeneity of parasite co-infection: Determinants and geostatistical prediction at regional scales. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International journal for parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), 591-7.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2644303/</t>
+  </si>
+  <si>
+    <t>Kato-Katz smears, NDVI, ArcView 9, Stata 10, WinBUGS 14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Trichuris trichiura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and hookworm</t>
+    </r>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <r>
+      <t>Halpenny, C. M., Paller, C., Koski, K. G., Valdés, V. E., &amp; Scott, M. E. (2013). Regional, household and individual factors that influence soil transmitted helminth reinfection dynamics in preschool children from rural indigenous Panamá. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), e2070.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3578751/</t>
+  </si>
+  <si>
+    <t>Specific species of hookworm were not differentiated, but Necator americanus is the predominant species in Central America</t>
+  </si>
+  <si>
+    <t>Kato-Katz, SaTScan, GPS, STATA 11.1, FLOTAC</t>
+  </si>
+  <si>
+    <t>250 households, 356 children</t>
+  </si>
+  <si>
+    <r>
+      <t>Sanchez, A. L., Gabrie, J. A., Rueda, M. M., Mejia, R. E., Bottazzi, M. E., &amp; Canales, M. (2014). A scoping review and prevalence analysis of soil-transmitted helminth infections in Honduras. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), e2653. doi:10.1371/journal.pntd.0002653</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3900402/</t>
+  </si>
+  <si>
+    <t>Prevalence mapping from systematic literature review</t>
+  </si>
+  <si>
+    <t>PubMed, Web of Knowledge, Google Scholar, Virtual Health Library, Excel, ArcGIS 10.1, IBM SPSS, Stata 13</t>
+  </si>
+  <si>
+    <t>211 studies</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and hookworm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Midzi, N., Kavhu, B., Manangazira, P., Phiri, I., Mutambu, S. L., Tshuma, C., Chimbari, M. J., Munyati, S., Midzi, S. M., Charimari, L., Ncube, A., Mutsaka-Makuvaza, M. J., Soko, W., Madzima, E., Hlerema, G., Mbedzi, J., Mhlanga, G., … Masocha, M. (2018). Inclusion of edaphic predictors for enhancement of models to determine distribution of soil-transmitted helminths: the case of Zimbabwe. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 47. doi:10.1186/s13071-017-2586-6</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5775612/</t>
+  </si>
+  <si>
+    <t>Epi Info 6, Kato-Katz, MODIS, LST, NDVI, AVP, HPD, DPW, Diva GIS, ArcMap 9.3, R, random forest, gradient boosted model, SRE, ANN, GLM, GAM, CTA, MARS, FDA, Maxent</t>
+  </si>
+  <si>
+    <t>Hookworm</t>
+  </si>
+  <si>
+    <r>
+      <t>Kaliappan, S. P., George, S., Francis, M. R., Kattula, D., Sarkar, R., Minz, S., Mohan, V. R., George, K., Roy, S., Ajjampur, S. S., Muliyil, J., … Kang, G. (2013). Prevalence and clustering of soil-transmitted helminth infections in a tribal area in southern India. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tropical medicine &amp; international health : TM &amp; IH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(12), 1452-62.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3923153/</t>
+  </si>
+  <si>
+    <t>Epi Info 3.5.1, SPSS 16, STATA 10, GPS, ArcView 10, SaTScan 9.1.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>, Trichuris trichiura, hookworm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hodges, M., Dada, N., Wamsley, A., Paye, J., Nyorkor, E., Sonnie, M., Barnish, G., Bockarie, M., … Zhang, Y. (2011). Improved mapping strategy to better inform policy on the control of schistosomiasis and soil-transmitted helminthiasis in Sierra Leone. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 97. doi:10.1186/1756-3305-4-97</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3118383/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, SPSS 18, Epi Info 3.5.1, ArcMap 9.3</t>
+  </si>
+  <si>
+    <r>
+      <t>Riess, H., Clowes, P., Kroidl, I., Kowuor, D. O., Nsojo, A., Mangu, C., Schüle, S. A., Mansmann, U., Geldmacher, C., Mhina, S., Maboko, L., Hoelscher, M., … Saathoff, E. (2013). Hookworm infection and environmental factors in mbeya region, Tanzania: a cross-sectional, population-based study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e2408. doi:10.1371/journal.pntd.0002408</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3764225/</t>
+  </si>
+  <si>
+    <t>GPS, Kato-Katz, PCA, SRTM DEM 2.1, LST, EVI, Idrisi GIS, Stata 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma haematobium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>, hookworm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Magalhães, R. J., Clements, A. C., Patil, A. P., Gething, P. W., &amp; Brooker, S. (2011). The applications of model-based geostatistics in helminth epidemiology and control. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advances in parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 267-96.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3037997/</t>
+  </si>
+  <si>
+    <t>GIS, R, WinBUGS, kriging</t>
+  </si>
+  <si>
+    <t>Co-endemicity also considered here. No sample size given.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1975758/pdf/15635963.pdf</t>
+  </si>
+  <si>
+    <t>Kato-Katz, GPS, ArcView 3.3, AVHRR, GAMs, S+SpatialStats, GIS</t>
+  </si>
+  <si>
+    <r>
+      <t>Brooker, S., Kabatereine, N. B., Tukahebwa, E. M., &amp; Kazibwe, F. (2004). Spatial analysis of the distribution of intestinal nematode infections in Uganda. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Epidemiology and infection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), 1065-71.</t>
+    </r>
+  </si>
+  <si>
+    <t>Climactic suitability mapping</t>
+  </si>
+  <si>
+    <t>4633 surveys</t>
+  </si>
+  <si>
+    <t>GPS, LST, ArcMap 9.2, GRUMP</t>
+  </si>
+  <si>
+    <r>
+      <t>Pullan, R. L., &amp; Brooker, S. J. (2012). The global limits and population at risk of soil-transmitted helminth infections in 2010. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 81. doi:10.1186/1756-3305-5-81</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3419672/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma haematobium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and hookworm</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5599053/</t>
+  </si>
+  <si>
+    <r>
+      <t>Chadeka, E. A., Nagi, S., Sunahara, T., Cheruiyot, N. B., Bahati, F., Ozeki, Y., Inoue, M., Osada-Oka, M., Okabe, M., Hirayama, Y., Changoma, M., Adachi, K., Mwende, F., Kikuchi, M., Nakamura, R., Kalenda, Y., Kaneko, S., Hirayama, K., Shimada, M., Ichinose, Y., Njenga, S. M., Matsumoto, S., … Hamano, S. (2017). Spatial distribution and risk factors of Schistosoma haematobium and hookworm infections among schoolchildren in Kwale, Kenya. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e0005872. doi:10.1371/journal.pntd.0005872</t>
+    </r>
+  </si>
+  <si>
+    <t>Intensity mapping and prevalence mapping - same thing?</t>
+  </si>
+  <si>
+    <t>R, SPSS 17, Kato-Katz, Excel, NB-GLMM, QGIS 2.12.3, SaTScan 9.4</t>
+  </si>
+  <si>
+    <r>
+      <t>Salam, N., &amp; Azam, S. (2017). Prevalence and distribution of soil-transmitted helminth infections in India. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BMC public health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 201. doi:10.1186/s12889-017-4113-2</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5311856/</t>
+  </si>
+  <si>
+    <t>PubMed, Web of Knowledge, Google maps</t>
+  </si>
+  <si>
+    <t>127 studies</t>
+  </si>
+  <si>
+    <t>Prevalence mapping, risk mapping, and predicted prevalence mapping</t>
+  </si>
+  <si>
+    <t>Asia, Africa, Uganda, Tanzania</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma haematobium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Trichuris trichiura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>, hookworm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Brooker, S., Clements, A. C., &amp; Bundy, D. A. (2006). Global epidemiology, ecology and control of soil-transmitted helminth infections. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advances in parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 221-61.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1976253/</t>
+  </si>
+  <si>
+    <t>Various sample sizes</t>
+  </si>
+  <si>
+    <t>AVHRR, Kato-Katz, LST, NDVI, GIS, remote sensing</t>
+  </si>
+  <si>
+    <r>
+      <t>Oluwole, A. S., Ekpo, U. F., Karagiannis-Voules, D. A., Abe, E. M., Olamiju, F. O., Isiyaku, S., Okoronkwo, C., Saka, Y., Nebe, O. J., Braide, E. I., Mafiana, C. F., Utzinger, J., … Vounatsou, P. (2015). Bayesian geostatistical model-based estimates of soil-transmitted helminth infection in Nigeria, including annual deworming requirements. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), e0003740. doi:10.1371/journal.pntd.0003740</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4409219/</t>
+  </si>
+  <si>
+    <t>36 states</t>
+  </si>
+  <si>
+    <r>
+      <t>Chammartin, F., Guimarães, L. H., Scholte, R. G., Bavia, M. E., Utzinger, J., &amp; Vounatsou, P. (2014). Spatio-temporal distribution of soil-transmitted helminth infections in Brazil. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 440. doi:10.1186/1756-3305-7-440</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4262198/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, GPS, Google Earth, NDVI, LST, INLA, R</t>
+  </si>
+  <si>
+    <t>Gaussian Markov random field, INLA, R</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Necator americanus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>, soil-transmitted helminthiases</t>
+    </r>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <r>
+      <t>Wardell, R., Clements, A., Lal, A., Summers, D., Llewellyn, S., Campbell, S. J., McCarthy, J., Gray, D. J., … V Nery, S. (2017). An environmental assessment and risk map of Ascaris lumbricoides and Necator americanus distributions in Manufahi District, Timor-Leste. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), e0005565. doi:10.1371/journal.pntd.0005565</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5440046/</t>
+  </si>
+  <si>
+    <t>GPS, qPCR, ArcMap 10.3, NDVI, EVI, MODIS, ASTER GDEM, R 3.2.0</t>
+  </si>
+  <si>
+    <t>Soil-transmitted helminths, onchocerciasis, LF, trachoma, schistosomiasis</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3039687/</t>
+  </si>
+  <si>
+    <r>
+      <t>Schneider, M. C., Aguilera, X. P., Barbosa da Silva Junior, J., Ault, S. K., Najera, P., Martinez, J., Requejo, R., Nicholls, R. S., Yadon, Z., Silva, J. C., Leanes, L. F., … Periago, M. R. (2011). Elimination of neglected diseases in latin america and the Caribbean: a mapping of selected diseases. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), e964. doi:10.1371/journal.pntd.0000964</t>
+    </r>
+  </si>
+  <si>
+    <t>ArcView 3.3</t>
+  </si>
+  <si>
+    <t>570 administrative units</t>
+  </si>
+  <si>
+    <r>
+      <t>Brooker, S., Kabatereine, N. B., Smith, J. L., Mupfasoni, D., Mwanje, M. T., Ndayishimiye, O., Lwambo, N. J., Mbotha, D., Karanja, P., Mwandawiro, C., Muchiri, E., Clements, A. C., Bundy, D. A., … Snow, R. W. (2009). An updated atlas of human helminth infections: the example of East Africa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International journal of health geographics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 42. doi:10.1186/1476-072X-8-42</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2714505/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ascaris lumbricoides, Trichuris trichiura, Schistosoma mansoni, Schistosoma haematobium, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>hookworm</t>
+    </r>
+  </si>
+  <si>
+    <t>2612 surveys</t>
+  </si>
+  <si>
+    <t>PubMed, MEDLINE, EMBASE, Microsoft Encarta, Excel, ArcMap 9.3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Trichuris trichiura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>, hookworm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clements, A. C., Deville, M. A., Ndayishimiye, O., Brooker, S., &amp; Fenwick, A. (2010). Spatial co-distribution of neglected tropical diseases in the east African great lakes region: revisiting the justification for integrated control. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tropical medicine &amp; international health : TM &amp; IH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 198-207.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2875158/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, GPS, LST, NDVI, Stata 10.0, WinBUGS 1.4</t>
+  </si>
+  <si>
+    <t>Trichuris trichiura</t>
+  </si>
+  <si>
+    <t>GPS, Kato-Katz, SRTM GDEM, LST, EVI, MODIS, Stata 14</t>
+  </si>
+  <si>
+    <r>
+      <t>Manz, K. M., Clowes, P., Kroidl, I., Kowuor, D. O., Geldmacher, C., Ntinginya, N. E., Maboko, L., Hoelscher, M., … Saathoff, E. (2017). Trichuris trichiura infection and its relation to environmental factors in Mbeya region, Tanzania: A cross-sectional, population-based study. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PloS one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), e0175137. doi:10.1371/journal.pone.0175137</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5383155/</t>
+  </si>
+  <si>
+    <r>
+      <t>Barbosa, L. M., Reis, E. A., Dos Santos, C. R., Costa, J. M., Carmo, T. M., Aminu, P. T., Pitanga, T. N., Ponce-Terashima, R., Blank, W. A., Silva, L. K., Reis, M. G., … Blanton, R. E. (2016). Repeated praziquantel treatments remodel the genetic and spatial landscape of schistosomiasis risk and transmission. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>International journal for parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5-6), 343-50.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4844855/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, PCR, PeakScanner, Nomad GPS, kernel density estimation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides, Trichuris trichiura, Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>, hookworm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Grimes, J. E., Tadesse, G., Mekete, K., Wuletaw, Y., Gebretsadik, A., French, M. D., Harrison, W. E., Drake, L. J., Gardiner, I. A., Yard, E., … Templeton, M. R. (2016). School Water, Sanitation, and Hygiene, Soil-Transmitted Helminths, and Schistosomes: National Mapping in Ethiopia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), e0004515. doi:10.1371/journal.pntd.0004515</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4783033/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, CS Pro 5, SPSS, R, Mann Whitney U tests</t>
+  </si>
+  <si>
+    <t>Ascaris lumbricoides</t>
+  </si>
+  <si>
+    <t>Relative intensity reduction mapping</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4589351/</t>
+  </si>
+  <si>
+    <r>
+      <t>Nikolay, B., Mwandawiro, C. S., Kihara, J. H., Okoyo, C., Cano, J., Mwanje, M. T., Sultani, H., Alusala, D., Turner, H. C., Teti, C., Garn, J., Freeman, M. C., Allen, E., Anderson, R. M., Pullan, R. L., Njenga, S. M., … Brooker, S. J. (2015). Understanding Heterogeneity in the Impact of National Neglected Tropical Disease Control Programmes: Evidence from School-Based Deworming in Kenya. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e0004108. doi:10.1371/journal.pntd.0004108</t>
+    </r>
+  </si>
+  <si>
+    <t>Kato-Katz, ArcGIS 10, R</t>
+  </si>
+  <si>
+    <t>153 schools</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4569387/</t>
+  </si>
+  <si>
+    <r>
+      <t>Soares Magalhães, R. J., Salamat, M. S., Leonardo, L., Gray, D. J., Carabin, H., Halton, K., McManus, D. P., Williams, G. M., Rivera, P., Saniel, O., Hernandez, L., Yakob, L., McGarvey, S. T., … Clements, A. C. (2015). Mapping the Risk of Soil-Transmitted Helminthic Infections in the Philippines. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e0003915. doi:10.1371/journal.pntd.0003915</t>
+    </r>
+  </si>
+  <si>
+    <t>Kato-Katz, QGIS 1.7.3, DIVA GIS, PhilGIS, LST, NDVI, R, WinBUGS</t>
+  </si>
+  <si>
+    <t>Schistosomiases, soil-transmitted helminthiases</t>
+  </si>
+  <si>
+    <r>
+      <t>Negussu, N., Mengistu, B., Kebede, B., Deribe, K., Ejigu, E., Tadesse, G., Mekete, K., … Sileshi, M. (2017). Ethiopia Schistosomiasis and Soil-Transmitted Helminthes Control Programme: Progress and Prospects. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ethiopian medical journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Suppl 1), 75-80.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5582635/</t>
+  </si>
+  <si>
+    <t>No methods or sample size</t>
+  </si>
+  <si>
+    <t>Prevalence mapping in review article</t>
+  </si>
+  <si>
+    <r>
+      <t>Tian-Bi, Y. T., Ouattara, M., Knopp, S., Coulibaly, J. T., Hürlimann, E., Webster, B., Allan, F., Rollinson, D., Meïté, A., Diakité, N. R., Konan, C. K., N'Goran, E. K., … Utzinger, J. (2018). Interrupting seasonal transmission of Schistosoma haematobium and control of soil-transmitted helminthiasis in northern and central Côte d'Ivoire: a SCORE study protocol. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BMC public health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 186. doi:10.1186/s12889-018-5044-2</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5789673/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Drug trial, no sample size listed</t>
+  </si>
+  <si>
+    <t>Co-distribution with plasmodium falciparum</t>
+  </si>
+  <si>
+    <r>
+      <t>Brooker, S., Clements, A. C., Hotez, P. J., Hay, S. I., Tatem, A. J., Bundy, D. A., &amp; Snow, R. W. (2006). The co-distribution of Plasmodium falciparum and hookworm among African schoolchildren. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Malaria journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 99. doi:10.1186/1475-2875-5-99</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1635726/</t>
+  </si>
+  <si>
+    <t>LST, NDVI, GRUMP, binomial logistic regression analysis, Stata 9, ArcView 3.2</t>
+  </si>
+  <si>
+    <r>
+      <t>Ganguly, S., Barkataki, S., Karmakar, S., Sanga, P., Boopathi, K., Kanagasabai, K., Kamaraj, P., Chowdhury, P., Sarkar, R., Raj, D., James, L., Dutta, S., Sehgal, R., Jha, P., … Murhekar, M. (2017). High prevalence of soil-transmitted helminth infections among primary school children, Uttar Pradesh, India, 2015. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infectious diseases of poverty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 139. doi:10.1186/s40249-017-0354-7</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5632835/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, Stata 13, ArcGIS 10</t>
+  </si>
+  <si>
+    <t>Estimates risk of soil-transmitted helminthiases for women</t>
+  </si>
+  <si>
+    <r>
+      <t>Mupfasoni, D., Mikhailov, A., Mbabazi, P., King, J., Gyorkos, T. W., &amp; Montresor, A. (2018). Estimation of the number of women of reproductive age in need of preventive chemotherapy for soil-transmitted helminth infections. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), e0006269. doi:10.1371/journal.pntd.0006269</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5825157/</t>
+  </si>
+  <si>
+    <r>
+      <t>Drabo, F., Ouedraogo, H., Bougma, R., Bougouma, C., Bamba, I., Zongo, D., Bagayan, M., Barrett, L., Yago-Wienne, F., Palmer, S., Chu, B., Toubali, E., … Zhang, Y. (2016). Successful Control of Soil-Transmitted Helminthiasis in School Age Children in Burkina Faso and an Example of Community-Based Assessment via Lymphatic Filariasis Transmission Assessment Survey. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), e0004707. doi:10.1371/journal.pntd.0004707</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4862685/</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Kato-Katz, SPSS 19, ArcMap 10</t>
+  </si>
+  <si>
+    <r>
+      <t>Pullan, R. L., Gething, P. W., Smith, J. L., Mwandawiro, C. S., Sturrock, H. J., Gitonga, C. W., Hay, S. I., … Brooker, S. (2011). Spatial modelling of soil-transmitted helminth infections in Kenya: a disease control planning tool. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), e958. doi:10.1371/journal.pntd.0000958</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3035671/</t>
+  </si>
+  <si>
+    <t>GPS, ArcMap 9.2, Stata 10.0, WinBUGS 1.4, Kato-Katz</t>
+  </si>
+  <si>
+    <t>945 surveys</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma haematobium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma guineensis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mintsa Nguema, R., Mavoungou, J. F., Mengue Me Ngou-Milama, K., Mabicka Mamfoumbi, M., Koumba, A. A., Sani Lamine, M., Diarra, A., Nkone Asseko, G., Mourou, J. R., Bouyou Akotet, M. K., Moné, H., Mouahid, G., … Atsame, J. (2018). Baseline Mapping of Schistosomiasis and Soil Transmitted Helminthiasis in the Northern and Eastern Health Regions of Gabon, Central Africa: Recommendations for Preventive Chemotherapy. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tropical medicine and infectious disease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), 119. doi:10.3390/tropicalmed3040119</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6306699/</t>
+  </si>
+  <si>
+    <t>GPS, Kato-Katz, R 3.2.2, ArcGIS 10.1, SPSS 10.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Necator americanus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pullan, R. L., Bethony, J. M., Geiger, S. M., Cundill, B., Correa-Oliveira, R., Quinnell, R. J., &amp; Brooker, S. (2008). Human helminth co-infection: analysis of spatial patterns and risk factors in a Brazilian community. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(12), e352.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2602736/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, PCR, GPS, ArcPad 6.0.3, ASTER, ArcView 3.3, WinBUGS 14, R</t>
+  </si>
+  <si>
+    <r>
+      <t>Schistosoma haematobium,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> hookworm</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2567660/pdf/12471398.pdf</t>
+  </si>
+  <si>
+    <t>Remote sensing, ERDAS Imagine 8.4, Kato-Katz, GPS, Stata 6.0</t>
+  </si>
+  <si>
+    <t>1017, 1000</t>
+  </si>
+  <si>
+    <t>First sample size provided urine sample, second sample size provided stool sample</t>
+  </si>
+  <si>
+    <r>
+      <t>Brooker, S., Beasley, M., Ndinaromtan, M., Madjiouroum, E. M., Baboguel, M., Djenguinabe, E., Hay, S. I., … Bundy, D. A. (2002). Use of remote sensing and a geographical information system in a national helminth control programme in Chad. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bulletin of the World Health Organization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10), 783-9.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mapping infected pigs</t>
+  </si>
+  <si>
+    <r>
+      <t>Pray, I. W., Ayvar, V., Gamboa, R., Muro, C., Moyano, L. M., Benavides, V., Flecker, R. H., Garcia, H. H., … O'Neal, S. E. (2017). Spatial relationship between Taenia solium tapeworm carriers and necropsy cyst burden in pigs. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), e0005536. doi:10.1371/journal.pntd.0005536</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5404875/</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>GPS, ELISA, EITB, ArcMap 10.3</t>
+  </si>
+  <si>
+    <r>
+      <t>O'Neal, S. E., Moyano, L. M., Ayvar, V., Gonzalvez, G., Diaz, A., Rodriguez, S., Wilkins, P. P., Tsang, V. C., Gilman, R. H., Garcia, H. H., Gonzalez, A. E., Cysticercosis Working Group in Peru (2012). Geographic correlation between tapeworm carriers and heavily infected cysticercotic pigs. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(12), e1953.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3527375/</t>
+  </si>
+  <si>
+    <t>GPS, ELISA, EITB, ArcMap 10, Stata 12</t>
+  </si>
+  <si>
+    <t>Really weird maps, not sure if this kind counts</t>
+  </si>
+  <si>
+    <r>
+      <t>Ng-Nguyen, D., Traub, R. J., Nguyen, V. T., Breen, K., &amp; Stevenson, M. A. (2018). Spatial distribution of Taenia solium exposure in humans and pigs in the Central Highlands of Vietnam. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), e0006810. doi:10.1371/journal.pntd.0006810</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6168177/</t>
+  </si>
+  <si>
+    <t>GPS, PCR, EITB, Microsoft Access, K-functions</t>
+  </si>
+  <si>
+    <t>Space-time clustering</t>
+  </si>
+  <si>
+    <t>Also a weird one</t>
+  </si>
+  <si>
+    <r>
+      <t>Ron-Garrido, L., Coral-Almeida, M., Gabriël, S., Benitez-Ortiz, W., Saegerman, C., Dorny, P., Berkvens, D., … Abatih, E. N. (2015). Distribution and Potential Indicators of Hospitalized Cases of Neurocysticercosis and Epilepsy in Ecuador from 1996 to 2008. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(11), e0004236. doi:10.1371/journal.pntd.0004236</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4651332/</t>
+  </si>
+  <si>
+    <t>SaTScan, QGIS, Stata 12, R, Kriging</t>
+  </si>
+  <si>
+    <t>Another weird map</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4818035/</t>
+  </si>
+  <si>
+    <r>
+      <t>Pray, I. W., Swanson, D. J., Ayvar, V., Muro, C., Moyano, L. M., Gonzalez, A. E., Garcia, H. H., O'Neal, S. E., Cysticercosis Working Group in Peru (2016). GPS Tracking of Free-Ranging Pigs to Evaluate Ring Strategies for the Control of Cysticercosis/Taeniasis in Peru. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), e0004591. doi:10.1371/journal.pntd.0004591</t>
+    </r>
+  </si>
+  <si>
+    <t>GPS, Stata 13.1, R 3.1, ArcGIS 10.2</t>
+  </si>
+  <si>
+    <t>41 pigs</t>
+  </si>
+  <si>
+    <r>
+      <t>Moyano, L. M., O'Neal, S. E., Ayvar, V., Gonzalvez, G., Gamboa, R., Vilchez, P., Rodriguez, S., Reistetter, J., Tsang, V. C., Gilman, R. H., Gonzalez, A. E., Garcia, H. H., Cysticercosis Working Group in Peru (2016). High Prevalence of Asymptomatic Neurocysticercosis in an Endemic Rural Community in Peru. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(12), e0005130. doi:10.1371/journal.pntd.0005130</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5167259/</t>
+  </si>
+  <si>
+    <t>EITB, Stata 12, ArcGIS 10.2.1</t>
+  </si>
+  <si>
+    <r>
+      <t>Colebunders, R., Tepage, F., Rood, E., Mandro, M., Abatih, E. N., Musinya, G., Mambandu, G., Kabeya, J., Komba, M., Levick, B., Mokili, J. L., … Laudisoit, A. (2016). Prevalence of River Epilepsy in the Orientale Province in the Democratic Republic of the Congo. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), e0004478. doi:10.1371/journal.pntd.0004478</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4854481/</t>
+  </si>
+  <si>
+    <t>GPS, GLMM, kernel density estimation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Taenia asiatica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Taenia solium</t>
+    </r>
+  </si>
+  <si>
+    <t>East and Southeast Asia</t>
+  </si>
+  <si>
+    <t>Mapping effort is very broad</t>
+  </si>
+  <si>
+    <r>
+      <t>Braae, U. C., Hung, N. M., Satrija, F., Khieu, V., Zhou, X. N., &amp; Willingham, A. L. (2018). Porcine cysticercosis (Taenia solium and Taenia asiatica): mapping occurrence and areas potentially at risk in East and Southeast Asia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 613. doi:10.1186/s13071-018-3203-z</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6267083/</t>
+  </si>
+  <si>
+    <t>PubMed</t>
+  </si>
+  <si>
+    <t>11 reports</t>
+  </si>
+  <si>
+    <r>
+      <t>Katabarwa, M. N., Lakwo, T., Habomugisha, P., Agunyo, S., Byamukama, E., Oguttu, D., Tukesiga, E., Unoba, D., Dramuke, P., Onapa, A., Tukahebwa, E. M., Lwamafa, D., Walsh, F., … Unnasch, T. R. (2013). Transmission of Onchocerca volvulus continues in Nyagak-Bondo focus of northwestern Uganda after 18 years of a single dose of annual treatment with ivermectin. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The American journal of tropical medicine and hygiene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 293-300.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3741251/</t>
+  </si>
+  <si>
+    <t>Excel, Epi Info, Poolscreen 2, PCR</t>
+  </si>
+  <si>
+    <t>Multiple sample sizes depending on year</t>
+  </si>
+  <si>
+    <r>
+      <t>Lenaerts, E., Mandro, M., Mukendi, D., Suykerbuyk, P., Dolo, H., Wonya'Rossi, D., Ngave, F., Ensoy-Musoro, C., Laudisoit, A., Hotterbeekx, A., … Colebunders, R. (2018). High prevalence of epilepsy in onchocerciasis endemic health areas in Democratic Republic of the Congo. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infectious diseases of poverty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 68. doi:10.1186/s40249-018-0452-1</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6069757/</t>
+  </si>
+  <si>
+    <t>EpiCollect+, GPS, QGIS, R</t>
+  </si>
+  <si>
+    <t>Schistosomiases, hookworm</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3183225/</t>
+  </si>
+  <si>
+    <r>
+      <t>Stothard, J. R., Sousa-Figueiredo, J. C., Betson, M., Seto, E. Y., &amp; Kabatereine, N. B. (2011). Investigating the spatial micro-epidemiology of diseases within a point-prevalence sample: a field applicable method for rapid mapping of households using low-cost GPS-dataloggers. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transactions of the Royal Society of Tropical Medicine and Hygiene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9), 500-6.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kato-Katz, EpiData 3.1, R 2.10.1, GPS, GoogleEarth 5, ArcView 9.3, SaTScan 9.1</t>
+  </si>
+  <si>
+    <t>126 mothers, 247 children</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7710,6 +11045,13 @@
       <color theme="1"/>
       <name val="Calibri "/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303030"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7732,7 +11074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7775,6 +11117,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8090,10 +11433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="135" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="135" workbookViewId="0">
+      <selection activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11813,6 +15156,1475 @@
       </c>
       <c r="K142" s="4" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="C143" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="H143" s="4">
+        <v>407</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="C144" s="11">
+        <v>2010</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="C145" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="H145" s="4">
+        <v>150</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="C146" s="11">
+        <v>1997</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="H146" s="4">
+        <v>4374</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C147" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="H147" s="4">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="C148" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="H148" s="4">
+        <v>15614</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C149" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="C150" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="C151" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="C152" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="C153" s="11">
+        <v>2009</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="H153" s="4">
+        <v>27729</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="C154" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="C155" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="C156" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="H156" s="4">
+        <v>12252</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="C157" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="H157" s="4">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="C158" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="H158" s="4">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="C159" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="H159" s="4">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="C160" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="C161" s="11">
+        <v>2004</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H161" s="4">
+        <v>13378</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C162" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="C163" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="H163" s="4">
+        <v>368</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C164" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C165" s="11">
+        <v>2007</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C166" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C167" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="C168" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="H168" s="4">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C169" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C170" s="11">
+        <v>2009</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C171" s="11">
+        <v>2010</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="H171" s="4">
+        <v>28213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="C172" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="H172" s="4">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="C173" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="H173" s="4">
+        <v>850</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="C174" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="C175" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="C176" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="H176" s="4">
+        <v>35573</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C177" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="C178" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="C179" s="11">
+        <v>2006</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C180" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="H180" s="4">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="C181" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="C182" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="H182" s="4">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="C183" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="C184" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="H184" s="4">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>858</v>
+      </c>
+      <c r="C185" s="11">
+        <v>2008</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="H185" s="4">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C186" s="11">
+        <v>2002</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="C187" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="H187" s="4">
+        <v>1420</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="C188" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="H188" s="4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="C189" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="H189" s="4">
+        <v>342</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="C190" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>886</v>
+      </c>
+      <c r="C191" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="C192" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="H192" s="4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="C193" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="H193" s="4">
+        <v>12776</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="C194" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="C195" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="C196" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="H196" s="4">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="C197" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>

--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66BFFDA2-B053-944B-920F-F3F40DAA8591}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7555DBD1-51B1-E64A-A4A2-A7170598BA0D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="700" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="945">
   <si>
     <t>Latin name</t>
   </si>
@@ -10892,6 +10892,419 @@
   </si>
   <si>
     <t>126 mothers, 247 children</t>
+  </si>
+  <si>
+    <r>
+      <t>Simón, F., Siles-Lucas, M., Morchón, R., González-Miguel, J., Mellado, I., Carretón, E., &amp; Montoya-Alonso, J. A. (2012). Human and animal dirofilariasis: the emergence of a zoonotic mosaic. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clinical microbiology reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), 507-44.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3416488/</t>
+  </si>
+  <si>
+    <t>No sample sizes or methods listed</t>
+  </si>
+  <si>
+    <t>Dirofilaria immitis</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <r>
+      <t>Herrin, B. H., Peregrine, A. S., Goring, J., Beall, M. J., &amp; Little, S. E. (2017). Canine infection with Borrelia burgdorferi, Dirofilaria immitis, Anaplasma spp. and Ehrlichia spp. in Canada, 2013-2014. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 244. doi:10.1186/s13071-017-2184-7</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5437676/</t>
+  </si>
+  <si>
+    <t>ELISA, MapViewer 7, StatPlus</t>
+  </si>
+  <si>
+    <t>Dirofilariosis</t>
+  </si>
+  <si>
+    <r>
+      <t>Dantas-Torres, F., &amp; Otranto, D. (2013). Dirofilariosis in the Americas: a more virulent Dirofilaria immitis?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 288. doi:10.1186/1756-3305-6-288</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3851770/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4229606/</t>
+  </si>
+  <si>
+    <r>
+      <t>Labarthe, N. V., Paiva, J. P., Reifur, L., Mendes-de-Almeida, F., Merlo, A., Carvalho Pinto, C. J., Juliani, P. S., de Almeida, M. A., … Alves, L. C. (2014). Updated canine infection rates for Dirofilaria immitis in areas of Brazil previously identified as having a high incidence of heartworm-infected dogs. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 493. doi:10.1186/s13071-014-0493-7</t>
+    </r>
+  </si>
+  <si>
+    <t>Epi Info 2000, ICT</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4057565/</t>
+  </si>
+  <si>
+    <r>
+      <t>Little, S. E., Beall, M. J., Bowman, D. D., Chandrashekar, R., &amp; Stamaris, J. (2014). Canine infection with Dirofilaria immitis, Borrelia burgdorferi, Anaplasma spp., and Ehrlichia spp. in the United States, 2010-2012. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 257. doi:10.1186/1756-3305-7-257</t>
+    </r>
+  </si>
+  <si>
+    <t>ELISA, SAS, GraphPad Prism</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957884/</t>
+  </si>
+  <si>
+    <r>
+      <t>Moraes-da-Silva, M., Mendes-de-Almeida, F., Abdalla, L., Merlo, A., Paiva, J. P., &amp; Labarthe, N. V. (2016). Selamectin for the prevention of canine Dirofilaria immitis infection: field efficacy in client-owned dogs in a high risk area. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 407. doi:10.1186/s13071-016-1697-9</t>
+    </r>
+  </si>
+  <si>
+    <t>ICT, Epi Info 3.5.2, ELISA</t>
+  </si>
+  <si>
+    <t>Post drug treatment</t>
+  </si>
+  <si>
+    <t>24 treated dogs, 204 untreated dogs</t>
+  </si>
+  <si>
+    <t>Italy, Europe</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5057216/</t>
+  </si>
+  <si>
+    <r>
+      <t>Bowman, D. D., Liu, Y., McMahan, C. S., Nordone, S. K., Yabsley, M. J., &amp; Lund, R. B. (2016). Forecasting United States heartworm Dirofilaria immitis prevalence in dogs. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 540. doi:10.1186/s13071-016-1804-y</t>
+    </r>
+  </si>
+  <si>
+    <t>R, C++</t>
+  </si>
+  <si>
+    <r>
+      <t>Montoya-Alonso, J. A., Morchón, R., Falcón-Cordón, Y., Falcón-Cordón, S., Simón, F., &amp; Carretón, E. (2017). Prevalence of heartworm in dogs and cats of Madrid, Spain. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 354. doi:10.1186/s13071-017-2299-x</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5530495/</t>
+  </si>
+  <si>
+    <t>1716 dogs, 531 cats</t>
+  </si>
+  <si>
+    <t>ICT, ELISA, SPSS Base 20</t>
   </si>
 </sst>
 </file>
@@ -11074,7 +11487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11118,6 +11531,8 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11433,10 +11848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K197"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A183" zoomScale="135" workbookViewId="0">
-      <selection activeCell="H198" sqref="H198"/>
+      <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -16625,6 +17040,234 @@
       </c>
       <c r="H197" s="4" t="s">
         <v>913</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="C198" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K198" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="C199" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="H199" s="25">
+        <v>115636</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="C200" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="C201" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="H201" s="4">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="C202" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="H202" s="26">
+        <v>30917280</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="C203" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="K203" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="K204" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>939</v>
+      </c>
+      <c r="C205" s="11">
+        <v>2016</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="H205" s="25">
+        <v>31345244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="C206" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>943</v>
       </c>
     </row>
   </sheetData>

--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7555DBD1-51B1-E64A-A4A2-A7170598BA0D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4616D6A-191D-5D41-8831-0AD21CBEC34C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1016">
   <si>
     <t>Latin name</t>
   </si>
@@ -11305,6 +11305,1282 @@
   </si>
   <si>
     <t>ICT, ELISA, SPSS Base 20</t>
+  </si>
+  <si>
+    <r>
+      <t>Brown, H. E., Harrington, L. C., Kaufman, P. E., McKay, T., Bowman, D. D., Nelson, C. T., Wang, D., … Lund, R. (2012). Key factors influencing canine heartworm, Dirofilaria immitis, in the United States. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 245. doi:10.1186/1756-3305-5-245</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3523980/</t>
+  </si>
+  <si>
+    <t>Kriging</t>
+  </si>
+  <si>
+    <r>
+      <t>Simón, F., González-Miguel, J., Diosdado, A., Gómez, P. J., Morchón, R., &amp; Kartashev, V. (2017). The Complexity of Zoonotic Filariasis Episystem and Its Consequences: A Multidisciplinary View. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BioMed research international</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 6436130.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5469992/</t>
+  </si>
+  <si>
+    <t>USSR</t>
+  </si>
+  <si>
+    <r>
+      <t>Kartashev, V., Afonin, A., González-Miguel, J., Sepúlveda, R., Simón, L., Morchón, R., &amp; Simón, F. (2014). Regional warming and emerging vector-borne zoonotic dirofilariosis in the Russian Federation, Ukraine, and other post-Soviet states from 1981 to 2011 and projection by 2030. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BioMed research international</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 858936.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4090463/</t>
+  </si>
+  <si>
+    <t>This is a weird kind of map</t>
+  </si>
+  <si>
+    <t>GPS, remote sensing, GIS, GDDs</t>
+  </si>
+  <si>
+    <t>GDDs, SRTM digital elevation models, GIS, Kriging, PubMed</t>
+  </si>
+  <si>
+    <t>2154 cases</t>
+  </si>
+  <si>
+    <r>
+      <t>Tada I. (2015). 3) Onchocerciasis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tropical medicine and health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Suppl), 57-60.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4652667/</t>
+  </si>
+  <si>
+    <t>Mapping is pre-MDA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Schistosomiases, hookworm, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Trichuris trichiura</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Koroma, J. B., Peterson, J., Gbakima, A. A., Nylander, F. E., Sahr, F., Soares Magalhães, R. J., Zhang, Y., … Hodges, M. H. (2010). Geographical distribution of intestinal schistosomiasis and soil-transmitted helminthiasis and preventive chemotherapy strategies in Sierra Leone. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(11), e891. doi:10.1371/journal.pntd.0000891</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2990690/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, Excel, Stata 10.0, GPS, ArcView 9.3, LST, NDVI, AVHRR, SRTM digital elevation model, WinBUGS 1.4</t>
+  </si>
+  <si>
+    <r>
+      <t>Osei, F. B., &amp; Stein, A. (2017). Spatio-temporal analysis of small-area intestinal parasites infections in Ghana. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scientific reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 12217. doi:10.1038/s41598-017-12397-1</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5610349/</t>
+  </si>
+  <si>
+    <t>ArcGIS, Moran's I, Kriging</t>
+  </si>
+  <si>
+    <r>
+      <t>Brooker, S., Bethony, J., &amp; Hotez, P. J. (2004). Human hookworm infection in the 21st century. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advances in parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>58</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 197-288.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2268732/</t>
+  </si>
+  <si>
+    <t>Cameroon and Uganda, World</t>
+  </si>
+  <si>
+    <t>No methods or sample size listed</t>
+  </si>
+  <si>
+    <r>
+      <t>Gunawardena, S., Gunawardena, N. K., Kahathuduwa, G., Karunaweera, N. D., de Silva, N. R., Ranasinghe, U. B., Samarasekara, S. D., Nagodavithana, K. C., Rao, R. U., Rebollo, M. P., … Weil, G. J. (2014). Integrated school-based surveillance for soil-transmitted helminth infections and lymphatic filariasis in Gampaha district, Sri Lanka. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The American journal of tropical medicine and hygiene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), 661-6.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3973510/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, ICT, GPS, ArcGIS 10.1</t>
+  </si>
+  <si>
+    <r>
+      <t>Pullan, R. L., Smith, J. L., Jasrasaria, R., &amp; Brooker, S. J. (2014). Global numbers of infection and disease burden of soil transmitted helminth infections in 2010. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 37. doi:10.1186/1756-3305-7-37</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3905661/</t>
+  </si>
+  <si>
+    <t>Bayesian MBG modeling</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma haematobium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma guineensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Trichuris trichiura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Necator americanus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tchuem Tchuenté, L. A., Dongmo Noumedem, C., Ngassam, P., Kenfack, C. M., Gipwe, N. F., Dankoni, E., Tarini, A., … Zhang, Y. (2013). Mapping of schistosomiasis and soil-transmitted helminthiasis in the regions of Littoral, North-West, South and South-West Cameroon and recommendations for treatment. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BMC infectious diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 602. doi:10.1186/1471-2334-13-602</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3878270/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, SPSS 19, ArcGIS 9.2</t>
+  </si>
+  <si>
+    <t>Ethiopia, Kenya, Uganda</t>
+  </si>
+  <si>
+    <r>
+      <t>Brooker, S. J., Pullan, R. L., Gitonga, C. W., Ashton, R. A., Kolaczinski, J. H., Kabatereine, N. B., &amp; Snow, R. W. (2012). Plasmodium-helminth coinfection and its sources of heterogeneity across East Africa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Journal of infectious diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>205</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), 841-52.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3274378/</t>
+  </si>
+  <si>
+    <t>Also maps coinfection with plasmodium falciprarum</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Necator americanus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>, schistosomiasis</t>
+    </r>
+  </si>
+  <si>
+    <t>Kato-Katz, LST, NDVI, ArcGIS 9.3, Stata 11.1, WinBUGS 14.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>, soil-transmitted helminths</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nute, A. W., Endeshaw, T., Stewart, A., Sata, E., Bayissasse, B., Zerihun, M., Gessesse, D., Chernet, A., Chanyalew, M., Tedessse, Z., King, J. D., Emerson, P. M., Callahan, E. K., … Nash, S. D. (2018). Prevalence of soil-transmitted helminths and Schistosoma mansoni among a population-based sample of school-age children in Amhara region, Ethiopia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 431. doi:10.1186/s13071-018-3008-0</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6056938/</t>
+  </si>
+  <si>
+    <t>Microsoft Access, Stata 14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Trichuris trichiura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, hookworm, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Taenia spp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>de Glanville, W. A., Thomas, L. F., Cook, E., Bronsvoort, B., Wardrop, N., Wamae, C. N., Kariuki, S., … Fèvre, E. M. (2018). General contextual effects on neglected tropical disease risk in rural Kenya. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(12), e0007016. doi:10.1371/journal.pntd.0007016</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6342328/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, ELISA, WinBUGS 1.4.3, SaTScan 9.4.4</t>
+  </si>
+  <si>
+    <t>Weird mapping method using standardized parasite ratio (SPR)</t>
+  </si>
+  <si>
+    <r>
+      <t>Pullan, R. L., Kabatereine, N. B., Quinnell, R. J., &amp; Brooker, S. (2010). Spatial and genetic epidemiology of hookworm in a rural community in Uganda. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), e713. doi:10.1371/journal.pntd.0000713</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2886101/</t>
+  </si>
+  <si>
+    <t>Kato-Katz, Stata 10, Bayesian negative binomal spatial models, WinBUGS 14, SOLAR 4.2.0</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6020085/</t>
+  </si>
+  <si>
+    <r>
+      <t>Adu-Gyasi, D., Asante, K. P., Frempong, M. T., Gyasi, D. K., Iddrisu, L. F., Ankrah, L., Dosoo, D., Adeniji, E., Agyei, O., Gyaase, S., Amenga-Etego, S., Gyan, B., … Owusu-Agyei, S. (2018). Epidemiology of soil transmitted Helminth infections in the middle-belt of Ghana, Africa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasite epidemiology and control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), e00071. doi:10.1016/j.parepi.2018.e00071</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hookworm, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Hymenolepis nana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Hymenolepis diminuta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ascaris lumbricoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Strongyloides stercoralis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Trichuris trichiura</t>
+    </r>
+  </si>
+  <si>
+    <t>GPS, Stata 13, R, ArcMap 10.0, SaTScan 9.4.4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Ancylostoma duodenale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Necator americanus</t>
+    </r>
+  </si>
+  <si>
+    <t>Predicted prevalence mapping from systematic literature review</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC89000/</t>
+  </si>
+  <si>
+    <r>
+      <t>Loukas, A., &amp; Prociv, P. (2001). Immune responses in hookworm infections. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Clinical microbiology reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), 689-703, table of contents.</t>
+    </r>
+  </si>
+  <si>
+    <t>No methods or sample sizes listed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hookworm, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma haematobium, Ascaris lumbricoides, Schistosoma mansoni</t>
+    </r>
+  </si>
+  <si>
+    <t>Kato-Katz, Epi Info 6, SPSS 8.0, MapInfo 6.5, Microsoft Access, Excel, GIS, GPS</t>
+  </si>
+  <si>
+    <r>
+      <t>Midzi, N., Mduluza, T., Chimbari, M. J., Tshuma, C., Charimari, L., Mhlanga, G., Manangazira, P., Munyati, S. M., Phiri, I., Mutambu, S. L., Midzi, S. S., Ncube, A., Muranzi, L. P., Rusakaniko, S., … Mutapi, F. (2014). Distribution of schistosomiasis and soil transmitted helminthiasis in Zimbabwe: towards a national plan of action for control and elimination. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(8), e3014. doi:10.1371/journal.pntd.0003014</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4133179/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni, Schistosoma haematobium, Ascaris lumbricoides, Trichuris Trichiura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>, hookworm</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2560644/pdf/11196498.pdf</t>
+  </si>
+  <si>
+    <t>ArcView 3.0</t>
+  </si>
+  <si>
+    <r>
+      <t>Brooker, S., Donnelly, C. A., &amp; Guyatt, H. L. (2003). Estimating the number of helminthic infections in the Republic of Cameroon from data on infection prevalence in schoolchildren. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bulletin of the World Health Organization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(12), 1456-65.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11848,10 +13124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:K224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="135" workbookViewId="0">
-      <selection activeCell="G207" sqref="G207"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -11863,7 +13139,7 @@
     <col min="5" max="5" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="4"/>
@@ -17268,6 +18544,474 @@
       </c>
       <c r="H206" s="4" t="s">
         <v>943</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="C207" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="H207" s="25">
+        <v>4769403</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="C208" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="C209" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="K209" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="C210" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K210" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>961</v>
+      </c>
+      <c r="C211" s="11">
+        <v>2010</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="H211" s="4">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="C212" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="H212" s="26">
+        <v>3310653</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="C213" s="11">
+        <v>2008</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="K213" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="C214" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="H214" s="4">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="C215" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="H215" s="4">
+        <v>4079</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="C216" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="H216" s="4">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="C217" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="H217" s="4">
+        <v>28050</v>
+      </c>
+      <c r="K217" s="4" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="C218" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="H218" s="4">
+        <v>15455</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>992</v>
+      </c>
+      <c r="C219" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="H219" s="4">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="C220" s="11">
+        <v>2010</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="H220" s="4">
+        <v>1803</v>
+      </c>
+      <c r="K220" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C221" s="11">
+        <v>2018</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H221" s="4">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C222" s="11">
+        <v>2001</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K222" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C223" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H223" s="4">
+        <v>12252</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C224" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H224" s="4">
+        <v>22166</v>
       </c>
     </row>
   </sheetData>

--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4616D6A-191D-5D41-8831-0AD21CBEC34C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4209923-0434-DA4F-BCBF-4EE936012757}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="1069">
   <si>
     <t>Latin name</t>
   </si>
@@ -12581,6 +12581,745 @@
       </rPr>
       <t>(12), 1456-65.</t>
     </r>
+  </si>
+  <si>
+    <t>Kenya, West Africa, Ethiopia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Soil-transmitted helminths, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma haematobium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pullan, R. L., Sturrock, H. J., Soares Magalhães, R. J., Clements, A. C., &amp; Brooker, S. J. (2012). Spatial parasite ecology and epidemiology: a review of methods and applications. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>139</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(14), 1870-87.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3526959/</t>
+  </si>
+  <si>
+    <t>Prevalence mapping, predicted prevalence mapping, recommended intervention mapping from systematic literature review</t>
+  </si>
+  <si>
+    <t>No detailed methods or sample sizes listed</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3125145/</t>
+  </si>
+  <si>
+    <r>
+      <t>Zouré, H. G., Wanji, S., Noma, M., Amazigo, U. V., Diggle, P. J., Tekle, A. H., &amp; Remme, J. H. (2011). The geographic distribution of Loa loa in Africa: results of large-scale implementation of the Rapid Assessment Procedure for Loiasis (RAPLOA). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), e1210.</t>
+    </r>
+  </si>
+  <si>
+    <t>Excel, SPSS 15, kriging, ArcGIS 10, GPS</t>
+  </si>
+  <si>
+    <t>4798 villages</t>
+  </si>
+  <si>
+    <t>DEM, NDVI, GPS</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC514498/</t>
+  </si>
+  <si>
+    <r>
+      <t>Thomson, M. C., Obsomer, V., Kamgno, J., Gardon, J., Wanji, S., Takougang, I., Enyong, P., Remme, J. H., Molyneux, D. H., … Boussinesq, M. (2004). Mapping the distribution of Loa loa in Cameroon in support of the African Programme for Onchocerciasis Control. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filaria journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 7. doi:10.1186/1475-2883-3-7</t>
+    </r>
+  </si>
+  <si>
+    <t>Central Africa</t>
+  </si>
+  <si>
+    <t>Co-endemicity with LF</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5683580/</t>
+  </si>
+  <si>
+    <r>
+      <t>Kelly-Hope, L. A., Stanton, M. C., Zouré, H., Kinvi, B. E., Mikhailov, A., Tekle, A., &amp; King, J. D. (2017). A practical approach for scaling up the alternative strategy for the elimination of lymphatic filariasis in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Loa loa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> endemic countries - developing an action plan. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Global health research and policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 12. doi:10.1186/s41256-017-0032-0</t>
+    </r>
+  </si>
+  <si>
+    <t>Co-endemicity with LF, no detailed methods or sample size listed</t>
+  </si>
+  <si>
+    <t>Central and West Africa</t>
+  </si>
+  <si>
+    <t>No clear methods or sample size listed</t>
+  </si>
+  <si>
+    <r>
+      <t>Kelly-Hope, L. A., Unnasch, T. R., Stanton, M. C., &amp; Molyneux, D. H. (2015). Hypo-endemic onchocerciasis hotspots: defining areas of high risk through micro-mapping and environmental delineation. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infectious diseases of poverty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 36. doi:10.1186/s40249-015-0069-6</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4537576/</t>
+  </si>
+  <si>
+    <t>ArcGIS 10</t>
+  </si>
+  <si>
+    <t>144 sites</t>
+  </si>
+  <si>
+    <r>
+      <t>Kelly-Hope, L. A., Cano, J., Stanton, M. C., Bockarie, M. J., &amp; Molyneux, D. H. (2014). Innovative tools for assessing risks for severe adverse events in areas of overlapping Loa loa and other filarial distributions: the application of micro-stratification mapping. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 307. doi:10.1186/1756-3305-7-307</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4101798/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Loa loa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Onchocerca volvulus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Wuchereria bancrofti</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3183006/</t>
+  </si>
+  <si>
+    <r>
+      <t>Kelly-Hope, L. A., Thomas, B. C., Bockarie, M. J., &amp; Molyneux, D. H. (2011). Lymphatic filariasis in the Democratic Republic of Congo; micro-stratification overlap mapping (MOM) as a prerequisite for control and surveillance. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 178. doi:10.1186/1756-3305-4-178</t>
+    </r>
+  </si>
+  <si>
+    <t>PubMed, JSTOR, SCOPUS, Google, ICT, ArcGIS 9.3</t>
+  </si>
+  <si>
+    <t>5524 households</t>
+  </si>
+  <si>
+    <r>
+      <t>Kelly-Hope, L. A., Molyneux, D. H., &amp; Bockarie, M. J. (2013). Can malaria vector control accelerate the interruption of lymphatic filariasis transmission in Africa; capturing a window of opportunity?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 39. doi:10.1186/1756-3305-6-39</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3599698/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620019/</t>
+  </si>
+  <si>
+    <r>
+      <t>Moraga, P., Cano, J., Baggaley, R. F., Gyapong, J. O., Njenga, S. M., Nikolay, B., Davies, E., Rebollo, M. P., Pullan, R. L., Bockarie, M. J., Hollingsworth, T. D., Gambhir, M., … Brooker, S. J. (2015). Modelling the distribution and transmission intensity of lymphatic filariasis in sub-Saharan Africa prior to scaling up interventions: integrated use of geostatistical and mathematical modelling. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasites &amp; vectors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 560. doi:10.1186/s13071-015-1166-x</t>
+    </r>
+  </si>
+  <si>
+    <t>Prevalence mapping and predicted prevalence mapping from systematic literature review</t>
+  </si>
+  <si>
+    <t>ICT, ELISA, ArcGIS 10.2, R</t>
+  </si>
+  <si>
+    <t>1224 mf surveys, 3519 antigenaemia surveys</t>
+  </si>
+  <si>
+    <r>
+      <t>Kelly-Hope, L. A., Bockarie, M. J., &amp; Molyneux, D. H. (2012). Loa loa ecology in central Africa: role of the Congo River system. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), e1605.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3383754/</t>
+  </si>
+  <si>
+    <t>NDVI</t>
+  </si>
+  <si>
+    <t>Not much in terms of methods, no sample size</t>
+  </si>
+  <si>
+    <t>Co-endemicity</t>
+  </si>
+  <si>
+    <t>VigiBase, Excel, Stata 12</t>
+  </si>
+  <si>
+    <t>52 patients</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5567455/</t>
+  </si>
+  <si>
+    <r>
+      <t>Nzolo, D., Anto, F., Hailemariam, S., Bakajika, D., Muteba, D., Makenga, J. C., Mesia, G., Nsibu, C., Mampunza, S., … Tona, G. (2017). Central and Peripheral Nervous System Disorders Following Ivermectin Mass Administration: A Descriptive Study Based on the Democratic Republic of Congo Pharmacovigilance System. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drugs - real world outcomes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), 151-158.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Schistosomiases, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2777245/</t>
+  </si>
+  <si>
+    <r>
+      <t>Brooker, S., Kabatereine, N. B., Gyapong, J. O., Stothard, J. R., &amp; Utzinger, J. (2009). Rapid mapping of schistosomiasis and other neglected tropical diseases in the context of integrated control programmes in Africa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Parasitology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>136</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(13), 1707-18.</t>
+    </r>
+  </si>
+  <si>
+    <t>East and Southern Africa, Uganda</t>
+  </si>
+  <si>
+    <t>Lot quality assurance sampling, remote sensing, GIS, Kato-Katz, GPS</t>
+  </si>
+  <si>
+    <t>What makes rapid mapping different from regular mapping?</t>
   </si>
 </sst>
 </file>
@@ -13124,10 +13863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K224"/>
+  <dimension ref="A1:K236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="135" workbookViewId="0">
+      <selection activeCell="K237" sqref="K237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -19012,6 +19751,312 @@
       </c>
       <c r="H224" s="4">
         <v>22166</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C225" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K225" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C226" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C227" s="11">
+        <v>2004</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H227" s="4">
+        <v>14255</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C228" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K228" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C229" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K229" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C230" s="11">
+        <v>2014</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C231" s="11">
+        <v>2011</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C232" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K232" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C233" s="11">
+        <v>2015</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C234" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K234" s="4" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C235" s="11">
+        <v>2017</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C236" s="11">
+        <v>2009</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K236" s="4" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>

--- a/lit review master.xlsx
+++ b/lit review master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4209923-0434-DA4F-BCBF-4EE936012757}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48C81130-E41E-B74B-9288-4B9AF35D8BD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="28800" windowHeight="16060" xr2:uid="{91FD2FA6-0E6B-461F-B49B-24525378B928}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1079">
   <si>
     <t>Latin name</t>
   </si>
@@ -13320,6 +13320,141 @@
   </si>
   <si>
     <t>What makes rapid mapping different from regular mapping?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma mansoni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri "/>
+      </rPr>
+      <t>Schistosoma haematobium</t>
+    </r>
+  </si>
+  <si>
+    <t>Kato-Katz, ArcView 9.2, LST, NDVI, AVHRR, DPBW, FAO-GIS, Stata 10.1, WinBUGS 1.4</t>
+  </si>
+  <si>
+    <t>Sample size varies by year of study</t>
+  </si>
+  <si>
+    <r>
+      <t>Clements, A. C., Bosqué-Oliva, E., Sacko, M., Landouré, A., Dembélé, R., Traoré, M., Coulibaly, G., Gabrielli, A. F., Fenwick, A., … Brooker, S. (2009). A comparative study of the spatial distribution of schistosomiasis in Mali in 1984-1989 and 2004-2006. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLoS neglected tropical diseases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), e431.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2671597/</t>
+  </si>
+  <si>
+    <t>Schistosomiases, Soil-transmitted helminthiases, LF</t>
+  </si>
+  <si>
+    <t>13588 children, 3986 adults</t>
+  </si>
+  <si>
+    <t>Kato-Katz, GPS, ELISA, Excel, STATA 10, ArcGIS 9.2</t>
+  </si>
+  <si>
+    <r>
+      <t>Finn, T. P., Stewart, B. T., Reid, H. L., Petty, N., Sabasio, A., Oguttu, D., Lado, M., Brooker, S. J., … Kolaczinski, J. H. (2012). Integrated rapid mapping of neglected tropical diseases in three States of South Sudan: survey findings and treatment needs. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PloS one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF303030"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(12), e52789.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3527617/</t>
   </si>
 </sst>
 </file>
@@ -13863,10 +13998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6841491-4DF6-412B-93BA-008054BB3AC1}">
-  <dimension ref="A1:K236"/>
+  <dimension ref="A1:K238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="135" workbookViewId="0">
-      <selection activeCell="K237" sqref="K237"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -20057,6 +20192,58 @@
       </c>
       <c r="K236" s="4" t="s">
         <v>1068</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C237" s="11">
+        <v>2009</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K237" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B238" s="15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C238" s="11">
+        <v>2012</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
